--- a/src/analysis_examples/er4000/results_er4000/animal_01/cosinor_per_day_fixed_period_animal_01_act.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_01/cosinor_per_day_fixed_period_animal_01_act.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -574,76 +574,76 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.06000000000032</v>
+        <v>24.10000000000033</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0500051087310236</v>
+        <v>0.01405800864521967</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0500051087310236</v>
+        <v>0.01405800864521967</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>137.9402935952202</v>
+        <v>359.8797692435151</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[11.68468365222003, 264.1959035382204]</t>
+          <t>[61.226766159491035, 658.5327723275391]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.03371271716613511</v>
+        <v>0.02051254822302284</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03371271716613511</v>
+        <v>0.02051254822302284</v>
       </c>
       <c r="P2" t="n">
-        <v>1.603816069400196</v>
+        <v>1.251605481610348</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.30818426431611545, 2.8994478744842764]</t>
+          <t>[0.19497371824080822, 2.308237244979887]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0176829409759669</v>
+        <v>0.02248559942290873</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0176829409759669</v>
+        <v>0.02248559942290873</v>
       </c>
       <c r="T2" t="n">
-        <v>489.4932411177411</v>
+        <v>847.9595540420162</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[412.3659538444243, 566.6205283910579]</t>
+          <t>[684.8725640861088, 1011.0465439979235]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.234368163238742e-11</v>
+        <v>4.847524603945885e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.234368163238742e-11</v>
+        <v>4.847524603945885e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.91855855855879</v>
+        <v>19.29929929929956</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.9572372372374</v>
+        <v>15.24644644644666</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.87987987988019</v>
+        <v>23.35215215215247</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -660,76 +660,76 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.06000000000032</v>
+        <v>24.10000000000033</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2032389311953301</v>
+        <v>0.00338076014875377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2032389311953301</v>
+        <v>0.00338076014875377</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>115.1517566804512</v>
+        <v>358.5666910636313</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-47.04758714739842, 277.35110050830076]</t>
+          <t>[137.0335997938272, 580.0997823334353]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1546754438081555</v>
+        <v>0.002922031772660816</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1546754438081555</v>
+        <v>0.002922031772660816</v>
       </c>
       <c r="P3" t="n">
-        <v>1.842816111114733</v>
+        <v>1.603816069400194</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-1.2704739059562327, 4.9561061281856995]</t>
+          <t>[0.77360539818127, 2.4340267406191183]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2319458787806714</v>
+        <v>0.0006232038021358743</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2319458787806714</v>
+        <v>0.0006232038021358743</v>
       </c>
       <c r="T3" t="n">
-        <v>539.390896784593</v>
+        <v>826.6455612260036</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[448.04406676985747, 630.7377267993286]</t>
+          <t>[690.7186736650804, 962.5724487869268]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.754263649431323e-11</v>
+        <v>2.746958216448547e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>4.754263649431323e-11</v>
+        <v>2.746958216448547e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>17.00336336336359</v>
+        <v>17.9483483483486</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.081741741741808</v>
+        <v>14.76396396396417</v>
       </c>
       <c r="Z3" t="n">
-        <v>28.92498498498537</v>
+        <v>21.13273273273302</v>
       </c>
     </row>
     <row r="4">
@@ -746,76 +746,76 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.06000000000032</v>
+        <v>24.10000000000033</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01723388780202117</v>
+        <v>2.463113483175405e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01723388780202117</v>
+        <v>2.463113483175405e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>164.6808892331844</v>
+        <v>534.6403562184703</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[35.70961600874767, 293.65216245762116]</t>
+          <t>[393.55772355908925, 675.7229888778513]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.01479922505825004</v>
+        <v>1.046705235818735e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01479922505825004</v>
+        <v>1.046705235818735e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>1.440289725069195</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 2.5346583371305043]</t>
+          <t>[1.2390265320464247, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01235255629739007</v>
+        <v>2.0849517667898e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01235255629739007</v>
+        <v>2.0849517667898e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>597.4656962813061</v>
+        <v>811.0790420770668</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[520.5250387849961, 674.4063537776161]</t>
+          <t>[715.8870562274174, 906.2710279267162]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.571276525031863e-13</v>
+        <v>4.174438572590589e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.571276525031863e-13</v>
+        <v>4.174438572590589e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>18.54474474474499</v>
+        <v>18.09309309309334</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.35411411411431</v>
+        <v>16.83863863863887</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.73537537537568</v>
+        <v>19.34754754754781</v>
       </c>
     </row>
     <row r="5">
@@ -832,76 +832,76 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.06000000000032</v>
+        <v>24.10000000000033</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001587045967502698</v>
+        <v>0.0002565621413418429</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001587045967502698</v>
+        <v>0.0002565621413418429</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>221.3234109169455</v>
+        <v>477.680730433334</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[121.62228390218075, 321.0245379317102]</t>
+          <t>[239.92849199109435, 715.4329688755736]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001489282140785253</v>
+        <v>0.0004242609756819338</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001489282140785253</v>
+        <v>0.0004242609756819338</v>
       </c>
       <c r="P5" t="n">
-        <v>1.540921321580579</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.9622896416401172, 2.119553001521041]</t>
+          <t>[1.1887107337907326, 2.345974093671658]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.702237083600622e-05</v>
+        <v>2.684239540862166e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>1.702237083600622e-05</v>
+        <v>2.684239540862166e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>592.39999978628</v>
+        <v>839.7031979506853</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[530.0962898030048, 654.7037097695552]</t>
+          <t>[699.3594131080762, 980.0469827932944]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>3.722266939121255e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>3.722266939121255e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>18.15939939939964</v>
+        <v>17.32112112112135</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.94366366366388</v>
+        <v>15.1017017017019</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.37513513513541</v>
+        <v>19.54054054054081</v>
       </c>
     </row>
     <row r="6">
@@ -918,76 +918,76 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.06000000000032</v>
+        <v>24.10000000000033</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009242590253283778</v>
+        <v>0.0004662597941949009</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009242590253283778</v>
+        <v>0.0004662597941949009</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>218.4091015388387</v>
+        <v>577.0596032894979</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[42.996488105110814, 393.8217149725666]</t>
+          <t>[254.57162458970208, 899.5475819892937]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01710977834958216</v>
+        <v>0.001262689160551833</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01710977834958216</v>
+        <v>0.001262689160551833</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9874475407679633</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.20755266780473125, 1.7673424137311953]</t>
+          <t>[0.672973801669885, 1.9811845563178885]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0155461766369891</v>
+        <v>0.0003846747213089863</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0155461766369891</v>
+        <v>0.0003846747213089863</v>
       </c>
       <c r="T6" t="n">
-        <v>658.7939618318989</v>
+        <v>790.3415026276361</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[565.3290886788337, 752.258834984964]</t>
+          <t>[611.6605548922612, 969.0224503630111]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.676436767183986e-12</v>
+        <v>8.193769440723031e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.676436767183986e-12</v>
+        <v>8.193769440723031e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>20.27879879879907</v>
+        <v>19.00980980981007</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.2923723723726</v>
+        <v>16.50090090090112</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.26522522522554</v>
+        <v>21.51871871871901</v>
       </c>
     </row>
     <row r="7">
@@ -999,81 +999,81 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.06000000000032</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02263977325170485</v>
+        <v>1.888296791152655e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02263977325170485</v>
+        <v>1.888296791152655e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>193.8734699183999</v>
+        <v>431.7348768811976</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[31.110565674452403, 356.6363741623474]</t>
+          <t>[281.9319191124864, 581.5378346499087]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.02182977143818565</v>
+        <v>5.998339350554716e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02182977143818565</v>
+        <v>5.998339350554716e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.830237161550811</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.6981317007977319, 2.9623426223038907]</t>
+          <t>[2.0315003545735797, 2.6604478327697354]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.002949250457489949</v>
+        <v>5.608846720406291e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002949250457489949</v>
+        <v>5.608846720406291e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>585.6969453796202</v>
+        <v>739.4949941782952</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[491.2007829729589, 680.1931077862814]</t>
+          <t>[664.192844758231, 814.7971435983594]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.925859471896274e-11</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.925859471896274e-11</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>17.05153153153176</v>
+        <v>14.94504504504522</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.71639639639656</v>
+        <v>13.75135135135151</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.38666666666695</v>
+        <v>16.13873873873893</v>
       </c>
     </row>
     <row r="8">
@@ -1085,81 +1085,81 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.06000000000032</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009101562707037769</v>
+        <v>0.00203136990086672</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009101562707037769</v>
+        <v>0.00203136990086672</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>269.4788270704153</v>
+        <v>211.8394177783924</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[75.60070637892778, 463.35694776190275]</t>
+          <t>[74.52157268848072, 349.15726286830414]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.00875016165998832</v>
+        <v>0.004222312468353362</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00875016165998832</v>
+        <v>0.004222312468353362</v>
       </c>
       <c r="P8" t="n">
-        <v>1.478026573760964</v>
+        <v>2.861711025792504</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.4968685077749626, 2.459184639746965]</t>
+          <t>[2.119553001521041, 3.6038690500639667]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.005028426751445325</v>
+        <v>7.930184442450638e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005028426751445325</v>
+        <v>7.930184442450638e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>686.4353335686492</v>
+        <v>667.9551818485609</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[571.3664731504971, 801.5041939868013]</t>
+          <t>[592.0115817279689, 743.8987819691529]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.933764425312347e-11</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>3.933764425312347e-11</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>18.40024024024049</v>
+        <v>12.98738738738755</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.64312312312332</v>
+        <v>10.17027027027039</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.15735735735765</v>
+        <v>15.8045045045047</v>
       </c>
     </row>
     <row r="9">
@@ -1167,85 +1167,85 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2228475409274474</v>
+        <v>6.231376000320754e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2228475409274474</v>
+        <v>6.231376000320754e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>156.2373128522491</v>
+        <v>320.6185518104126</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-93.88139483436282, 406.3560205388611]</t>
+          <t>[161.24572476534627, 479.99137885547896]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2080140771920025</v>
+        <v>0.0004188134092673046</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2080140771920025</v>
+        <v>0.0004188134092673046</v>
       </c>
       <c r="P9" t="n">
-        <v>1.025184389459732</v>
+        <v>2.509500438002657</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.1069740519571187, 4.157342830876583]</t>
+          <t>[2.0189214050096567, 3.000079470995658]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.503512651311093</v>
+        <v>6.489127013509233e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>0.503512651311093</v>
+        <v>6.489127013509233e-10</v>
       </c>
       <c r="T9" t="n">
-        <v>675.642217122333</v>
+        <v>728.0773502634672</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[548.0210300568783, 803.2634041877877]</t>
+          <t>[644.5154010466792, 811.6392994802552]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.503821677242058e-10</v>
+        <v>2.686739719592879e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>3.503821677242058e-10</v>
+        <v>2.686739719592879e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03387387387413</v>
+        <v>14.3243243243245</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.099819819819922</v>
+        <v>12.46216216216231</v>
       </c>
       <c r="Z9" t="n">
-        <v>31.96792792792834</v>
+        <v>16.18648648648668</v>
       </c>
     </row>
     <row r="10">
@@ -1257,81 +1257,81 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.037279680993208e-05</v>
+        <v>0.0007911143098052742</v>
       </c>
       <c r="I10" t="n">
-        <v>1.037279680993208e-05</v>
+        <v>0.0007911143098052742</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>244.1993211862835</v>
+        <v>311.3773458040262</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[144.34622942600487, 344.0524129465621]</t>
+          <t>[114.6723044292151, 508.0823871788372]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.894997440985094e-05</v>
+        <v>0.00347444884116177</v>
       </c>
       <c r="O10" t="n">
-        <v>4.894997440985094e-05</v>
+        <v>0.00347444884116177</v>
       </c>
       <c r="P10" t="n">
-        <v>1.943447707626119</v>
+        <v>2.509500438002657</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.490605523324887, 2.39628989192735]</t>
+          <t>[1.9182898084982725, 3.100711067507042]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.364939894443751e-08</v>
+        <v>1.64166382710107e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>1.364939894443751e-08</v>
+        <v>1.64166382710107e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>683.5499731752246</v>
+        <v>707.2593370835315</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[627.9949637740606, 739.1049825763887]</t>
+          <t>[606.0870438864977, 808.4316302805653]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.964206575166827e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.964206575166827e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>16.53513513513534</v>
+        <v>14.3243243243245</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.80972972972991</v>
+        <v>12.08018018018033</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.26054054054077</v>
+        <v>16.56846846846867</v>
       </c>
     </row>
     <row r="11">
@@ -1343,81 +1343,81 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001596061852461306</v>
+        <v>0.0008444377712238937</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001596061852461306</v>
+        <v>0.0008444377712238937</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>228.3274581158921</v>
+        <v>232.3491936334372</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[83.19139737687584, 373.46351885490844]</t>
+          <t>[88.6348157675776, 376.0635714992967]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.003643054247533417</v>
+        <v>0.002948155849294976</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003643054247533417</v>
+        <v>0.002948155849294976</v>
       </c>
       <c r="P11" t="n">
-        <v>1.943447707626119</v>
+        <v>2.622710984077965</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 2.6227109840779654]</t>
+          <t>[1.9937635058818106, 3.2516584622741194]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.619868737844925e-06</v>
+        <v>2.207022054001584e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>6.619868737844925e-06</v>
+        <v>2.207022054001584e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>609.8265001907758</v>
+        <v>653.6792021540996</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[530.3592882455915, 689.2937121359602]</t>
+          <t>[577.6302669882627, 729.7281373199364]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.237410339806956e-13</v>
+        <v>3.486100297322992e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>3.237410339806956e-13</v>
+        <v>3.486100297322992e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>16.53513513513534</v>
+        <v>13.89459459459476</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.9470270270272</v>
+        <v>11.50720720720735</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.12324324324348</v>
+        <v>16.28198198198218</v>
       </c>
     </row>
     <row r="12">
@@ -1429,81 +1429,81 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>8.304649569579325e-06</v>
+        <v>0.0001571346277384755</v>
       </c>
       <c r="I12" t="n">
-        <v>8.304649569579325e-06</v>
+        <v>0.0001571346277384755</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>350.423162096491</v>
+        <v>335.6948030050778</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[211.84965862901618, 488.99666556396573]</t>
+          <t>[164.25175966009857, 507.13784635005703]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.260667931836991e-05</v>
+        <v>0.0005470084888952176</v>
       </c>
       <c r="O12" t="n">
-        <v>3.260667931836991e-05</v>
+        <v>0.0005470084888952176</v>
       </c>
       <c r="P12" t="n">
-        <v>1.855395060678656</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.4151318259413461, 2.295658295415965]</t>
+          <t>[2.320816194543811, 3.4529216552968895]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.851100317473708e-08</v>
+        <v>6.847480360505642e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>1.851100317473708e-08</v>
+        <v>6.847480360505642e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>722.7455965810183</v>
+        <v>754.5454687684312</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[644.3095364558535, 801.181656706183]</t>
+          <t>[660.0262929634398, 849.0646445734226]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.881784197001252e-15</v>
+        <v>1.498801083243961e-13</v>
       </c>
       <c r="W12" t="n">
-        <v>8.881784197001252e-15</v>
+        <v>1.498801083243961e-13</v>
       </c>
       <c r="X12" t="n">
-        <v>16.87063063063085</v>
+        <v>12.89189189189205</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.19315315315335</v>
+        <v>10.74324324324338</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.54810810810835</v>
+        <v>15.04054054054072</v>
       </c>
     </row>
     <row r="13">
@@ -1515,81 +1515,81 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008467173253559501</v>
+        <v>0.02615739863145417</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008467173253559501</v>
+        <v>0.02615739863145417</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>219.8790610029193</v>
+        <v>260.1555368892629</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[40.340114714347465, 399.4180072914911]</t>
+          <t>[17.301585982088795, 503.00948779643693]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01877075175303511</v>
+        <v>0.03696093528653988</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01877075175303511</v>
+        <v>0.03696093528653988</v>
       </c>
       <c r="P13" t="n">
-        <v>2.232763547596349</v>
+        <v>2.622710984077965</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 2.949763672739966]</t>
+          <t>[1.4277107755052705, 3.8177111926506595]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.039251434826639e-06</v>
+        <v>0.00016869074359116</v>
       </c>
       <c r="S13" t="n">
-        <v>2.039251434826639e-06</v>
+        <v>0.00016869074359116</v>
       </c>
       <c r="T13" t="n">
-        <v>673.8791476363635</v>
+        <v>796.2845816149814</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[580.9257668226169, 766.8325284501102]</t>
+          <t>[666.5714548014809, 925.997708428482]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9.754419494356625e-13</v>
+        <v>2.305644564160048e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>9.754419494356625e-13</v>
+        <v>2.305644564160048e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>15.43279279279299</v>
+        <v>13.89459459459476</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.70090090090106</v>
+        <v>9.358558558558672</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.16468468468492</v>
+        <v>18.43063063063086</v>
       </c>
     </row>
     <row r="14">
@@ -1597,85 +1597,85 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>6.240025464765431e-05</v>
+        <v>0.07501102665569814</v>
       </c>
       <c r="I14" t="n">
-        <v>6.240025464765431e-05</v>
+        <v>0.07501102665569814</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>335.2966229424815</v>
+        <v>191.4342960802928</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[185.71220097598223, 484.8810449089807]</t>
+          <t>[-27.72222476144009, 410.59081692202574]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0001337808400196927</v>
+        <v>0.08358816751961196</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0001337808400196927</v>
+        <v>0.08358816751961196</v>
       </c>
       <c r="P14" t="n">
-        <v>1.817658211986886</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.301921279866038, 2.333395144107735]</t>
+          <t>[-0.6981317007977328, 5.490711484652431]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.254109799399885e-07</v>
+        <v>0.122233348738036</v>
       </c>
       <c r="S14" t="n">
-        <v>3.254109799399885e-07</v>
+        <v>0.122233348738036</v>
       </c>
       <c r="T14" t="n">
-        <v>698.8770092435261</v>
+        <v>758.2246878275181</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[611.7088058991403, 786.0452125879119]</t>
+          <t>[642.1889146832727, 874.2604609717635]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.376676550535194e-13</v>
+        <v>7.113865052588153e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>1.376676550535194e-13</v>
+        <v>7.113865052588153e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>17.01441441441463</v>
+        <v>14.75405405405423</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.04936936936956</v>
+        <v>3.008108108108145</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.97945945945971</v>
+        <v>26.50000000000033</v>
       </c>
     </row>
     <row r="15">
@@ -1687,81 +1687,81 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.976535919751999e-05</v>
+        <v>0.01159412258253811</v>
       </c>
       <c r="I15" t="n">
-        <v>2.976535919751999e-05</v>
+        <v>0.01159412258253811</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>449.7427735851943</v>
+        <v>244.9798366796819</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[263.4448116439104, 636.0407355264782]</t>
+          <t>[57.59303643546667, 432.36663692389715]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.711897659455012e-05</v>
+        <v>0.01286240039004527</v>
       </c>
       <c r="O15" t="n">
-        <v>5.711897659455012e-05</v>
+        <v>0.01286240039004527</v>
       </c>
       <c r="P15" t="n">
-        <v>1.704447665911579</v>
+        <v>2.849132076228581</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.2516054816103477, 2.157289850212811]</t>
+          <t>[1.918289808498272, 3.7799743439588904]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.166084815373836e-07</v>
+        <v>2.605297636959492e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>1.166084815373836e-07</v>
+        <v>2.605297636959492e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>784.0335257704908</v>
+        <v>758.1600728534665</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[673.490449494913, 894.5766020460685]</t>
+          <t>[649.8663905456011, 866.453755161332]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.487476808392785e-12</v>
+        <v>1.909583602355269e-12</v>
       </c>
       <c r="W15" t="n">
-        <v>1.487476808392785e-12</v>
+        <v>1.909583602355269e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>17.44576576576599</v>
+        <v>13.03513513513529</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.72036036036056</v>
+        <v>9.501801801801918</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.17117117117142</v>
+        <v>16.56846846846867</v>
       </c>
     </row>
     <row r="16">
@@ -1773,81 +1773,81 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.243779152544256e-05</v>
+        <v>0.006135878846718068</v>
       </c>
       <c r="I16" t="n">
-        <v>2.243779152544256e-05</v>
+        <v>0.006135878846718068</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>392.4436941275877</v>
+        <v>297.8751541527445</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[220.91330107242914, 563.9740871827463]</t>
+          <t>[93.74138768879106, 502.008920616698]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.000106355536729108</v>
+        <v>0.006302386952421912</v>
       </c>
       <c r="O16" t="n">
-        <v>0.000106355536729108</v>
+        <v>0.006302386952421912</v>
       </c>
       <c r="P16" t="n">
-        <v>1.993763505881811</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.515763422452733, 2.4717635893108882]</t>
+          <t>[2.144710900648888, 3.930921738725967]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.197787707380883e-08</v>
+        <v>5.583610762638358e-07</v>
       </c>
       <c r="S16" t="n">
-        <v>2.197787707380883e-08</v>
+        <v>5.583610762638358e-07</v>
       </c>
       <c r="T16" t="n">
-        <v>702.3177874741565</v>
+        <v>744.5478972230867</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[607.9584625918284, 796.6771123564846]</t>
+          <t>[623.2328736487318, 865.8629207974416]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5.861977570020827e-13</v>
+        <v>2.316213887354479e-11</v>
       </c>
       <c r="W16" t="n">
-        <v>5.861977570020827e-13</v>
+        <v>2.316213887354479e-11</v>
       </c>
       <c r="X16" t="n">
-        <v>16.34342342342363</v>
+        <v>12.31891891891907</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.52216216216235</v>
+        <v>8.928828828828937</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.16468468468491</v>
+        <v>15.7090090090092</v>
       </c>
     </row>
     <row r="17">
@@ -1859,81 +1859,81 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.257596497581062e-10</v>
+        <v>0.000575045839326993</v>
       </c>
       <c r="I17" t="n">
-        <v>4.257596497581062e-10</v>
+        <v>0.000575045839326993</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>353.1150059501615</v>
+        <v>301.823771952609</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[274.48006004622584, 431.74995185409716]</t>
+          <t>[123.99718351143298, 479.6503603937851]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>6.332302460165806e-09</v>
+        <v>0.001987948345045121</v>
       </c>
       <c r="O17" t="n">
-        <v>6.332302460165806e-09</v>
+        <v>0.001987948345045121</v>
       </c>
       <c r="P17" t="n">
-        <v>2.006342455445734</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.7799213632951183, 2.232763547596349]</t>
+          <t>[2.1069740519571187, 3.2893953109658893]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>4.797577668469444e-09</v>
       </c>
       <c r="S17" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>4.797577668469444e-09</v>
       </c>
       <c r="T17" t="n">
-        <v>760.5478064764625</v>
+        <v>691.0816595076753</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[717.1875076796846, 803.9081052732404]</t>
+          <t>[595.756376695301, 786.4069423200497]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.752199048307375e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.752199048307375e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>16.2954954954957</v>
+        <v>13.60810810810827</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.43279279279299</v>
+        <v>11.3639639639641</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.15819819819841</v>
+        <v>15.85225225225244</v>
       </c>
     </row>
     <row r="18">
@@ -1945,81 +1945,81 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06865828233630966</v>
+        <v>0.08081882098180215</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06865828233630966</v>
+        <v>0.08081882098180215</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>84.50229496581511</v>
+        <v>196.4509497926978</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[1.9349988395355808, 167.06959109209464]</t>
+          <t>[-6.778812916040124, 399.6807125014358]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.04531229864700803</v>
+        <v>0.05742363819399521</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04531229864700803</v>
+        <v>0.05742363819399521</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.522052897234695</v>
+        <v>-3.081842643161159</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-2.9057373492662353, -0.1383684452031546]</t>
+          <t>[-4.503263943884468, -1.6604213424378487]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.03263975425624466</v>
+        <v>0.0001924879499561882</v>
       </c>
       <c r="S18" t="n">
-        <v>0.03263975425624466</v>
+        <v>0.0001924879499561882</v>
       </c>
       <c r="T18" t="n">
-        <v>656.1419269728099</v>
+        <v>672.256851624237</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[605.9307534502401, 706.3531004953796]</t>
+          <t>[550.8473802360551, 793.666323012419]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.552216133404727e-10</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.552216133404727e-10</v>
       </c>
       <c r="X18" t="n">
-        <v>5.799279279279354</v>
+        <v>11.69819819819834</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.5272072072072156</v>
+        <v>6.302702702702781</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.07135135135149</v>
+        <v>17.0936936936939</v>
       </c>
     </row>
     <row r="19">
@@ -2031,81 +2031,81 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0118177325901978</v>
+        <v>0.0001108223964051414</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0118177325901978</v>
+        <v>0.0001108223964051414</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>166.3884135779127</v>
+        <v>380.4193511478475</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[21.485483750094602, 311.29134340573086]</t>
+          <t>[183.10901493389497, 577.7296873618]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.02641581061919385</v>
+        <v>0.0006350605623808292</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02641581061919385</v>
+        <v>0.0006350605623808292</v>
       </c>
       <c r="P19" t="n">
-        <v>2.534658337130504</v>
+        <v>2.72334258058935</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1.7044476659115788, 3.364869008349429]</t>
+          <t>[2.1824477493406578, 3.2642374118380424]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.700631035246204e-06</v>
+        <v>8.607707879804138e-10</v>
       </c>
       <c r="S19" t="n">
-        <v>2.700631035246204e-06</v>
+        <v>8.607707879804138e-10</v>
       </c>
       <c r="T19" t="n">
-        <v>740.1726526264183</v>
+        <v>827.1938836567185</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[666.5853484365382, 813.7599568162984]</t>
+          <t>[723.1492312793578, 931.2385360340793]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.623146062001979e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.623146062001979e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>14.2825225225227</v>
+        <v>13.51261261261278</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.11927927927942</v>
+        <v>11.4594594594596</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.44576576576599</v>
+        <v>15.56576576576595</v>
       </c>
     </row>
     <row r="20">
@@ -2113,85 +2113,85 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3463359276773744</v>
+        <v>0.01084025904130537</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3463359276773744</v>
+        <v>0.01084025904130537</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>52.94239496139716</v>
+        <v>216.1331425906392</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-39.9608672803688, 145.8456572031631]</t>
+          <t>[46.19648144150699, 386.0698037397713]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.2492159905186688</v>
+        <v>0.01514471984788113</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2492159905186688</v>
+        <v>0.01514471984788113</v>
       </c>
       <c r="P20" t="n">
-        <v>1.402552876377426</v>
+        <v>2.874289975356427</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-1.6541318676558863, 4.459237620410738]</t>
+          <t>[1.86797401024258, 3.8806059404702746]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.3508251289031987</v>
+        <v>6.773584869890215e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3508251289031987</v>
+        <v>6.773584869890215e-06</v>
       </c>
       <c r="T20" t="n">
-        <v>622.4341382680918</v>
+        <v>676.4923856837614</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[570.3928007222252, 674.4754758139585]</t>
+          <t>[581.922466607231, 771.0623047602919]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.262323578998803e-12</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.262323578998803e-12</v>
       </c>
       <c r="X20" t="n">
-        <v>18.59603603603627</v>
+        <v>12.9396396396398</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.949549549549635</v>
+        <v>9.119819819819931</v>
       </c>
       <c r="Z20" t="n">
-        <v>30.2425225225229</v>
+        <v>16.75945945945966</v>
       </c>
     </row>
     <row r="21">
@@ -2203,81 +2203,81 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002709296647761317</v>
+        <v>0.004109329970475084</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002709296647761317</v>
+        <v>0.004109329970475084</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>168.8799034028488</v>
+        <v>250.0535410429384</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[60.312078615090115, 277.44772819060745]</t>
+          <t>[75.16406159418506, 424.9430204916917]</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.003968487312319358</v>
+        <v>0.007249031564765085</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003968487312319358</v>
+        <v>0.007249031564765085</v>
       </c>
       <c r="P21" t="n">
-        <v>2.748500479717197</v>
+        <v>2.786237328408966</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[2.0063424554457336, 3.4906585039886595]</t>
+          <t>[2.0063424554457336, 3.5661322013721977]</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.506440003851139e-07</v>
+        <v>2.639902638712499e-07</v>
       </c>
       <c r="S21" t="n">
-        <v>1.506440003851139e-07</v>
+        <v>2.639902638712499e-07</v>
       </c>
       <c r="T21" t="n">
-        <v>496.9651361221793</v>
+        <v>627.0900812734297</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>[434.6692687716029, 559.2610034727556]</t>
+          <t>[530.147950072828, 724.0322124740314]</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>1.518785097687214e-13</v>
+        <v>8.61377635885674e-12</v>
       </c>
       <c r="W21" t="n">
-        <v>1.518785097687214e-13</v>
+        <v>8.61377635885674e-12</v>
       </c>
       <c r="X21" t="n">
-        <v>13.46774774774792</v>
+        <v>13.27387387387404</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.64000000000013</v>
+        <v>10.31351351351364</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.2954954954957</v>
+        <v>16.23423423423443</v>
       </c>
     </row>
     <row r="22">
@@ -2289,81 +2289,81 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.839262305338487e-05</v>
+        <v>0.009836931254283532</v>
       </c>
       <c r="I22" t="n">
-        <v>3.839262305338487e-05</v>
+        <v>0.009836931254283532</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>223.5090819880742</v>
+        <v>276.8254512524253</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[120.73804940076911, 326.28011457537934]</t>
+          <t>[66.61318428222154, 487.03771822262905]</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.0001862066743543167</v>
+        <v>0.012307254904802</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0001862066743543167</v>
+        <v>0.012307254904802</v>
       </c>
       <c r="P22" t="n">
-        <v>2.106974051957119</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1.616395018964118, 2.5975530849501194]</t>
+          <t>[1.9560266571900415, 3.9938164865455823]</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.347919642569195e-08</v>
+        <v>5.023337298126762e-06</v>
       </c>
       <c r="S22" t="n">
-        <v>1.347919642569195e-08</v>
+        <v>5.023337298126762e-06</v>
       </c>
       <c r="T22" t="n">
-        <v>578.3830799187233</v>
+        <v>696.3753944294269</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>[522.3462629956883, 634.4198968417583]</t>
+          <t>[576.6885041729248, 816.0622846859291]</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>6.248868089642201e-11</v>
       </c>
       <c r="W22" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>6.248868089642201e-11</v>
       </c>
       <c r="X22" t="n">
-        <v>15.91207207207227</v>
+        <v>12.55765765765781</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.04288288288306</v>
+        <v>8.690090090090196</v>
       </c>
       <c r="Z22" t="n">
-        <v>17.78126126126149</v>
+        <v>16.42522522522542</v>
       </c>
     </row>
     <row r="23">
@@ -2375,81 +2375,81 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001309563886226717</v>
+        <v>0.03942025641346936</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001309563886226717</v>
+        <v>0.03942025641346936</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>152.5550685647509</v>
+        <v>241.7046428566376</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[51.28803476864056, 253.82210236086115]</t>
+          <t>[24.820199891266498, 458.58908582200877]</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.005027146227782442</v>
+        <v>0.03064946268760149</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005027146227782442</v>
+        <v>0.03064946268760149</v>
       </c>
       <c r="P23" t="n">
-        <v>2.119553001521041</v>
+        <v>3.113290017070966</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[1.452868674633116, 2.7862373284089657]</t>
+          <t>[1.8805529598065034, 4.346027074335428]</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.513726200386145e-06</v>
+        <v>3.313137690597046e-05</v>
       </c>
       <c r="S23" t="n">
-        <v>1.513726200386145e-06</v>
+        <v>3.313137690597046e-05</v>
       </c>
       <c r="T23" t="n">
-        <v>563.2433815069094</v>
+        <v>645.7641904399204</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>[511.1682357275172, 615.3185272863016]</t>
+          <t>[516.4099759104535, 775.1184049693874]</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.00109831535633e-09</v>
       </c>
       <c r="W23" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.00109831535633e-09</v>
       </c>
       <c r="X23" t="n">
-        <v>15.86414414414435</v>
+        <v>12.03243243243258</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.32396396396413</v>
+        <v>7.353153153153248</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.40432432432456</v>
+        <v>16.71171171171191</v>
       </c>
     </row>
     <row r="24">
@@ -2457,85 +2457,85 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004159233701082621</v>
+        <v>0.03377471373034413</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004159233701082621</v>
+        <v>0.03377471373034413</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>242.7086052812009</v>
+        <v>189.7628684009704</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[67.75255727787766, 417.6646532845241]</t>
+          <t>[12.725217549682156, 366.8005192522587]</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.008861370605212304</v>
+        <v>0.03685999345201063</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008861370605212304</v>
+        <v>0.03685999345201063</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4465527095192705</v>
+        <v>-2.893158399702312</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[-0.3207632138800385, 1.2138686329185795]</t>
+          <t>[-4.2013691543503136, -1.5849476450543105]</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>0.2396233396260934</v>
+        <v>0.0001552060407130629</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2396233396260934</v>
+        <v>0.0001552060407130629</v>
       </c>
       <c r="T24" t="n">
-        <v>656.4093268043858</v>
+        <v>708.4009331883598</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>[562.3004339006719, 750.5182197080998]</t>
+          <t>[609.6167841241902, 807.1850822525294]</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>2.050581926482664e-12</v>
+        <v>1.20303766948382e-12</v>
       </c>
       <c r="W24" t="n">
-        <v>2.050581926482664e-12</v>
+        <v>1.20303766948382e-12</v>
       </c>
       <c r="X24" t="n">
-        <v>22.23855855855884</v>
+        <v>10.98198198198212</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.3149549549552</v>
+        <v>6.016216216216293</v>
       </c>
       <c r="Z24" t="n">
-        <v>25.16216216216248</v>
+        <v>15.94774774774794</v>
       </c>
     </row>
     <row r="25">
@@ -2543,85 +2543,85 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2541580446148441</v>
+        <v>0.02448752763398643</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2541580446148441</v>
+        <v>0.02448752763398643</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>79.90951035711873</v>
+        <v>286.2096219429685</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[-47.69464377611095, 207.51366449034842]</t>
+          <t>[49.30849266804489, 523.1107512178921]</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.2069113659702049</v>
+        <v>0.02022574877391325</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2069113659702049</v>
+        <v>0.02022574877391325</v>
       </c>
       <c r="P25" t="n">
-        <v>0.6729738016698859</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[-2.4277372658371577, 3.7736848691769294]</t>
+          <t>[-4.201369154350314, -1.9371582328441557]</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>0.6563593450562215</v>
+        <v>1.351307559627202e-05</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6563593450562215</v>
+        <v>1.351307559627202e-05</v>
       </c>
       <c r="T25" t="n">
-        <v>704.1626525176433</v>
+        <v>732.973791326632</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>[635.4772601370573, 772.8480448982293]</t>
+          <t>[591.6118559798094, 874.3357266734545]</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>5.093734323224908e-10</v>
       </c>
       <c r="W25" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>5.093734323224908e-10</v>
       </c>
       <c r="X25" t="n">
-        <v>21.37585585585613</v>
+        <v>11.65045045045059</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.561621621621741</v>
+        <v>7.353153153153237</v>
       </c>
       <c r="Z25" t="n">
-        <v>33.19009009009051</v>
+        <v>15.94774774774794</v>
       </c>
     </row>
     <row r="26">
@@ -2633,81 +2633,81 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02200987225456541</v>
+        <v>0.0007440727014359494</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02200987225456541</v>
+        <v>0.0007440727014359494</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>142.3781995762924</v>
+        <v>294.8311047731612</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[11.426281066613512, 273.3301180859714]</t>
+          <t>[120.86703444084304, 468.79517510547936]</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.03449423411862163</v>
+        <v>0.002012611132011122</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03449423411862163</v>
+        <v>0.002012611132011122</v>
       </c>
       <c r="P26" t="n">
-        <v>2.534658337130504</v>
+        <v>-2.80510575275485</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[1.5409213215805786, 3.528395352680429]</t>
+          <t>[-3.446632180514927, -2.1635793249947732]</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.932004029099211e-05</v>
+        <v>9.961916402900783e-09</v>
       </c>
       <c r="S26" t="n">
-        <v>2.932004029099211e-05</v>
+        <v>9.961916402900783e-09</v>
       </c>
       <c r="T26" t="n">
-        <v>599.0645272951806</v>
+        <v>685.7906627826474</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>[530.0662563526643, 668.0627982376969]</t>
+          <t>[590.2576514415591, 781.3236741237356]</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>2.864375403532904e-14</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="W26" t="n">
-        <v>2.864375403532904e-14</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="X26" t="n">
-        <v>14.2825225225227</v>
+        <v>10.64774774774788</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.49621621621635</v>
+        <v>8.212612612612716</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.06882882882906</v>
+        <v>13.08288288288304</v>
       </c>
     </row>
     <row r="27">
@@ -2719,81 +2719,81 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>5.365556671299565e-06</v>
+        <v>0.03383690740304757</v>
       </c>
       <c r="I27" t="n">
-        <v>5.365556671299565e-06</v>
+        <v>0.03383690740304757</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>233.6552566811631</v>
+        <v>246.6213078742104</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[144.09059891745136, 323.21991444487486]</t>
+          <t>[7.714751888502519, 485.52786385991834]</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.211636160187602e-05</v>
+        <v>0.04364671889142158</v>
       </c>
       <c r="O27" t="n">
-        <v>2.211636160187602e-05</v>
+        <v>0.04364671889142158</v>
       </c>
       <c r="P27" t="n">
-        <v>2.92460577361212</v>
+        <v>2.786237328408966</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[2.4843425388748113, 3.3648690083494293]</t>
+          <t>[1.478026573760964, 4.094448083056967]</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.205169628652584e-12</v>
+        <v>0.0002328540681435509</v>
       </c>
       <c r="S27" t="n">
-        <v>5.205169628652584e-12</v>
+        <v>0.0002328540681435509</v>
       </c>
       <c r="T27" t="n">
-        <v>615.2608586962886</v>
+        <v>749.9600286646922</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>[564.4512174795261, 666.070499913051]</t>
+          <t>[621.4853950875179, 878.4346622418666]</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>5.881384268491274e-11</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>5.881384268491274e-11</v>
       </c>
       <c r="X27" t="n">
-        <v>12.79675675675692</v>
+        <v>13.27387387387404</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.11927927927942</v>
+        <v>8.308108108108211</v>
       </c>
       <c r="Z27" t="n">
-        <v>14.47423423423442</v>
+        <v>18.23963963963986</v>
       </c>
     </row>
     <row r="28">
@@ -2805,81 +2805,81 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.74693559789052e-05</v>
+        <v>0.02758084260628491</v>
       </c>
       <c r="I28" t="n">
-        <v>1.74693559789052e-05</v>
+        <v>0.02758084260628491</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>210.722429622157</v>
+        <v>249.23138422549</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[113.94968731783882, 307.4951719264752]</t>
+          <t>[11.182499222524939, 487.28026922845515]</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.0001837536895510361</v>
+        <v>0.04100706083980588</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0001837536895510361</v>
+        <v>0.04100706083980588</v>
       </c>
       <c r="P28" t="n">
-        <v>2.597553084950119</v>
+        <v>-2.666737307551696</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[2.144710900648888, 3.050395269251351]</t>
+          <t>[-3.949790163071852, -1.3836844520315408]</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>8.124456662983448e-11</v>
+        <v>0.0003006024180753908</v>
       </c>
       <c r="S28" t="n">
-        <v>8.124456662983448e-11</v>
+        <v>0.0003006024180753908</v>
       </c>
       <c r="T28" t="n">
-        <v>515.7646506228248</v>
+        <v>696.0586769079307</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>[465.8876830091465, 565.6416182365031]</t>
+          <t>[570.5731456802021, 821.5442081356593]</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.502808988362858e-10</v>
       </c>
       <c r="W28" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.502808988362858e-10</v>
       </c>
       <c r="X28" t="n">
-        <v>14.04288288288306</v>
+        <v>10.12252252252265</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.31747747747763</v>
+        <v>5.252252252252316</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.76828828828849</v>
+        <v>14.99279279279298</v>
       </c>
     </row>
     <row r="29">
@@ -2887,85 +2887,85 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>5.41854328073299e-09</v>
+        <v>0.05285512250741575</v>
       </c>
       <c r="I29" t="n">
-        <v>5.41854328073299e-09</v>
+        <v>0.05285512250741575</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>371.2021224962861</v>
+        <v>163.3822439928181</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[270.8676390398123, 471.5366059527598]</t>
+          <t>[10.57600182587288, 316.18848615976333]</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1.530607589561583e-07</v>
+        <v>0.03728504610393801</v>
       </c>
       <c r="O29" t="n">
-        <v>1.530607589561583e-07</v>
+        <v>0.03728504610393801</v>
       </c>
       <c r="P29" t="n">
-        <v>2.19502669890458</v>
+        <v>3.100711067507043</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[1.9308687580621946, 2.459184639746965]</t>
+          <t>[1.7673424137311953, 4.434079721282891]</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.816769371198461e-14</v>
+        <v>8.834595927886824e-05</v>
       </c>
       <c r="S29" t="n">
-        <v>6.816769371198461e-14</v>
+        <v>8.834595927886824e-05</v>
       </c>
       <c r="T29" t="n">
-        <v>644.0123472723699</v>
+        <v>607.1374055188941</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>[591.5206301721944, 696.5040643725454]</t>
+          <t>[514.6440854803591, 699.6307255574291]</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.52766729558607e-12</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.52766729558607e-12</v>
       </c>
       <c r="X29" t="n">
-        <v>15.57657657657677</v>
+        <v>12.08018018018033</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.57009009009028</v>
+        <v>7.018918918919007</v>
       </c>
       <c r="Z29" t="n">
-        <v>16.58306306306327</v>
+        <v>17.14144144144165</v>
       </c>
     </row>
     <row r="30">
@@ -2973,85 +2973,85 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.9400000000003</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.590163618114815e-06</v>
+        <v>0.2681526893576545</v>
       </c>
       <c r="I30" t="n">
-        <v>1.590163618114815e-06</v>
+        <v>0.2681526893576545</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>321.4927344430123</v>
+        <v>108.8816742088754</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[214.99302094511148, 427.9924479409131]</t>
+          <t>[-73.63160522398823, 291.394953641739]</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.165649031799944e-06</v>
+        <v>0.2284239703353526</v>
       </c>
       <c r="O30" t="n">
-        <v>3.165649031799944e-06</v>
+        <v>0.2284239703353526</v>
       </c>
       <c r="P30" t="n">
-        <v>1.691868716347656</v>
+        <v>-2.465474114528927</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 2.0566582537014257]</t>
+          <t>[-5.553606232472046, 0.6226580034141929]</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.633865208740872e-09</v>
+        <v>0.1117132230450788</v>
       </c>
       <c r="S30" t="n">
-        <v>3.633865208740872e-09</v>
+        <v>0.1117132230450788</v>
       </c>
       <c r="T30" t="n">
-        <v>626.8412722004718</v>
+        <v>643.4167891878944</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>[562.5311578284868, 691.1513865724569]</t>
+          <t>[547.8103804615268, 739.023197914262]</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>4.063416270128073e-12</v>
       </c>
       <c r="W30" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>4.063416270128073e-12</v>
       </c>
       <c r="X30" t="n">
-        <v>17.49369369369392</v>
+        <v>9.358558558558672</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.10378378378399</v>
+        <v>-2.36351351351354</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.88360360360385</v>
+        <v>21.08063063063089</v>
       </c>
     </row>
     <row r="31">
@@ -3059,85 +3059,85 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>23.9400000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01113167245709323</v>
+        <v>0.1551095357950729</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01113167245709323</v>
+        <v>0.1551095357950729</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>263.8359870964437</v>
+        <v>178.9603826393438</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[77.98959954199893, 449.6823746508885]</t>
+          <t>[-69.1978439037257, 427.11860918241337]</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.007605556513621936</v>
+        <v>0.1485709960390489</v>
       </c>
       <c r="O31" t="n">
-        <v>0.007605556513621936</v>
+        <v>0.1485709960390489</v>
       </c>
       <c r="P31" t="n">
-        <v>1.490605523324888</v>
+        <v>-2.440316215401081</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[0.5220264069028087, 2.459184639746967]</t>
+          <t>[-5.541027282908123, 0.6603948521059619]</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>0.004299078825554137</v>
+        <v>0.1165941691939958</v>
       </c>
       <c r="S31" t="n">
-        <v>0.004299078825554137</v>
+        <v>0.1165941691939958</v>
       </c>
       <c r="T31" t="n">
-        <v>701.6482641531682</v>
+        <v>648.5698152907266</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>[586.0206560059789, 817.2758723003574]</t>
+          <t>[518.0417522691296, 779.0978783123237]</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>2.862177161944146e-11</v>
+        <v>1.087961498669188e-09</v>
       </c>
       <c r="W31" t="n">
-        <v>2.862177161944146e-11</v>
+        <v>1.087961498669188e-09</v>
       </c>
       <c r="X31" t="n">
-        <v>18.26054054054077</v>
+        <v>9.204804804804908</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.57009009009027</v>
+        <v>-2.490990990991016</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.95099099099127</v>
+        <v>20.90060060060083</v>
       </c>
     </row>
     <row r="32">
@@ -3145,85 +3145,85 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>23.9400000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001221006078869102</v>
+        <v>0.09486910771467938</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001221006078869102</v>
+        <v>0.09486910771467938</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>198.7806731479059</v>
+        <v>158.6952629778947</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[68.00918898831321, 329.55215730749865]</t>
+          <t>[-27.62167319204019, 345.0121991478297]</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.004709013021425124</v>
+        <v>0.09102280098738325</v>
       </c>
       <c r="O32" t="n">
-        <v>0.004709013021425124</v>
+        <v>0.09102280098738325</v>
       </c>
       <c r="P32" t="n">
-        <v>2.421447791055196</v>
+        <v>-2.691895206679542</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[1.8176582119868865, 3.025237370123505]</t>
+          <t>[-4.729685036035084, -0.6541053773239995]</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.197637015757039e-08</v>
+        <v>0.01207552052342331</v>
       </c>
       <c r="S32" t="n">
-        <v>4.197637015757039e-08</v>
+        <v>0.01207552052342331</v>
       </c>
       <c r="T32" t="n">
-        <v>713.9997427996025</v>
+        <v>621.3620456819513</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>[646.6401442702797, 781.3593413289252]</t>
+          <t>[519.3923834615905, 723.331707902312]</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.647282393297701e-11</v>
       </c>
       <c r="W32" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.647282393297701e-11</v>
       </c>
       <c r="X32" t="n">
-        <v>14.71387387387406</v>
+        <v>10.15375375375387</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.41333333333349</v>
+        <v>2.467267267267292</v>
       </c>
       <c r="Z32" t="n">
-        <v>17.01441441441463</v>
+        <v>17.84024024024044</v>
       </c>
     </row>
     <row r="33">
@@ -3231,85 +3231,85 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.9400000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03323694092522289</v>
+        <v>0.04067588871299332</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03323694092522289</v>
+        <v>0.04067588871299332</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>127.8660445782631</v>
+        <v>243.7258564530424</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[16.846249567405067, 238.88583958912122]</t>
+          <t>[-8.226665742894568, 495.67837864897945]</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.02601415092598458</v>
+        <v>0.05725735596545034</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02601415092598458</v>
+        <v>0.05725735596545034</v>
       </c>
       <c r="P33" t="n">
-        <v>1.628973968528041</v>
+        <v>-2.364842518017542</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 2.8617110257925047]</t>
+          <t>[-5.169948270772392, 0.44026323473730766]</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>0.01205086181902981</v>
+        <v>0.09415168206316604</v>
       </c>
       <c r="S33" t="n">
-        <v>0.01205086181902981</v>
+        <v>0.09415168206316604</v>
       </c>
       <c r="T33" t="n">
-        <v>700.4051400222529</v>
+        <v>628.4515857756289</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>[634.2532574197561, 766.5570226247497]</t>
+          <t>[497.4243662847218, 759.478805266536]</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.025823508944313e-09</v>
       </c>
       <c r="W33" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.025823508944313e-09</v>
       </c>
       <c r="X33" t="n">
-        <v>17.73333333333355</v>
+        <v>8.920120120120222</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.03639639639656</v>
+        <v>-1.660660660660676</v>
       </c>
       <c r="Z33" t="n">
-        <v>22.43027027027055</v>
+        <v>19.50090090090112</v>
       </c>
     </row>
     <row r="34">
@@ -3321,81 +3321,81 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>23.9400000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04048417889207778</v>
+        <v>0.02038461400058977</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04048417889207778</v>
+        <v>0.02038461400058977</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>178.1199452449241</v>
+        <v>239.8098971983696</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[9.176649709192702, 347.0632407806554]</t>
+          <t>[51.91104981176977, 427.7087445849695]</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.0397422732005317</v>
+        <v>0.01484062307013212</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0397422732005317</v>
+        <v>0.01484062307013212</v>
       </c>
       <c r="P34" t="n">
-        <v>-2.981211046649774</v>
+        <v>3.125868966634889</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[-4.339737599553468, -1.62268449374608]</t>
+          <t>[2.0063424554457328, 4.2453954778240455]</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>0.0001689355745615462</v>
+        <v>9.178633188611229e-06</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0001689355745615462</v>
+        <v>9.178633188611229e-06</v>
       </c>
       <c r="T34" t="n">
-        <v>854.0858226355776</v>
+        <v>808.0162904861901</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>[758.4100338998148, 949.7616113713405]</t>
+          <t>[692.5272178198854, 923.5053631524947]</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>1.643130076445232e-14</v>
+        <v>1.933120330477323e-12</v>
       </c>
       <c r="W34" t="n">
-        <v>1.643130076445232e-14</v>
+        <v>1.933120330477323e-12</v>
       </c>
       <c r="X34" t="n">
-        <v>11.35891891891906</v>
+        <v>11.90930930930944</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.182702702702784</v>
+        <v>7.686486486486571</v>
       </c>
       <c r="Z34" t="n">
-        <v>16.53513513513535</v>
+        <v>16.13213213213232</v>
       </c>
     </row>
     <row r="35">
@@ -3407,81 +3407,81 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>23.9400000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6508229263462484</v>
+        <v>0.2188803192339254</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6508229263462484</v>
+        <v>0.2188803192339254</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>50.07085714104267</v>
+        <v>172.3105148942165</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[-100.86998895361265, 201.01170323569798]</t>
+          <t>[-92.99704088572906, 437.6180706741621]</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.4978357262705408</v>
+        <v>0.1911814775048277</v>
       </c>
       <c r="O35" t="n">
-        <v>0.4978357262705408</v>
+        <v>0.1911814775048277</v>
       </c>
       <c r="P35" t="n">
-        <v>1.13839493553504</v>
+        <v>-2.075526678047311</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[-1.9748950815359256, 4.251684952606005]</t>
+          <t>[-5.163658795990431, 1.0126054398958093]</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>0.4554545590790591</v>
+        <v>0.1767936793236429</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4554545590790591</v>
+        <v>0.1767936793236429</v>
       </c>
       <c r="T35" t="n">
-        <v>735.8163738485486</v>
+        <v>735.1918394245517</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>[657.3254327421153, 814.3073149549818]</t>
+          <t>[595.458636201252, 874.9250426478515]</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>3.917952628995636e-10</v>
       </c>
       <c r="W35" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>3.917952628995636e-10</v>
       </c>
       <c r="X35" t="n">
-        <v>19.60252252252277</v>
+        <v>7.828828828828916</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.740360360360464</v>
+        <v>-3.819519519519563</v>
       </c>
       <c r="Z35" t="n">
-        <v>31.46468468468508</v>
+        <v>19.4771771771774</v>
       </c>
     </row>
     <row r="36">
@@ -3489,85 +3489,85 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.9400000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.003456476536067288</v>
+        <v>0.2616785676112003</v>
       </c>
       <c r="I36" t="n">
-        <v>0.003456476536067288</v>
+        <v>0.2616785676112003</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>181.9422129641158</v>
+        <v>136.6283390899855</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[51.42220003730961, 312.4622258909219]</t>
+          <t>[-72.43984433901079, 345.6965225189818]</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.008585317526365266</v>
+        <v>0.1885487152308745</v>
       </c>
       <c r="O36" t="n">
-        <v>0.008585317526365266</v>
+        <v>0.1885487152308745</v>
       </c>
       <c r="P36" t="n">
-        <v>1.968605606753965</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[1.2012896833546556, 2.7359215301532736]</t>
+          <t>[-4.603895540395853, 1.610105544182157]</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.726779023931591e-05</v>
+        <v>0.3277884445669599</v>
       </c>
       <c r="S36" t="n">
-        <v>2.726779023931591e-05</v>
+        <v>0.3277884445669599</v>
       </c>
       <c r="T36" t="n">
-        <v>675.4520141301457</v>
+        <v>643.0154851265324</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>[606.5810074992487, 744.3230207610427]</t>
+          <t>[524.9777420810818, 761.053228171983]</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>2.08900896581099e-10</v>
       </c>
       <c r="W36" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>2.08900896581099e-10</v>
       </c>
       <c r="X36" t="n">
-        <v>16.43927927927949</v>
+        <v>5.646246246246307</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.51567567567584</v>
+        <v>-6.073273273273346</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.36288288288313</v>
+        <v>17.36576576576596</v>
       </c>
     </row>
     <row r="37">
@@ -3575,85 +3575,85 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>23.9400000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0004681564067230415</v>
+        <v>0.7703036070887814</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0004681564067230415</v>
+        <v>0.7703036070887814</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>257.3414814242433</v>
+        <v>58.14606528393404</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[103.26647166872795, 411.41649117975874]</t>
+          <t>[-158.84560996053574, 275.1377405284038]</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.002270084261624783</v>
+        <v>0.5832395321302717</v>
       </c>
       <c r="O37" t="n">
-        <v>0.002270084261624783</v>
+        <v>0.5832395321302717</v>
       </c>
       <c r="P37" t="n">
-        <v>2.484342538874811</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[1.9182898084982725, 3.05039526925135]</t>
+          <t>[-6.220290559359971, 0.03144737390980801]</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>9.351928564882428e-09</v>
+        <v>0.05214284271827219</v>
       </c>
       <c r="S37" t="n">
-        <v>9.351928564882428e-09</v>
+        <v>0.05214284271827219</v>
       </c>
       <c r="T37" t="n">
-        <v>751.3267972840295</v>
+        <v>630.672533839686</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>[671.7618566100424, 830.8917379580165]</t>
+          <t>[512.3558948992758, 748.9891727800963]</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>3.09771985840257e-10</v>
       </c>
       <c r="W37" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>3.09771985840257e-10</v>
       </c>
       <c r="X37" t="n">
-        <v>14.47423423423442</v>
+        <v>11.6720720720722</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.31747747747763</v>
+        <v>-0.1186186186186209</v>
       </c>
       <c r="Z37" t="n">
-        <v>16.6309909909912</v>
+        <v>23.46276276276303</v>
       </c>
     </row>
     <row r="38">
@@ -3661,85 +3661,85 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0002789270909510089</v>
+        <v>0.4429763751315416</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0002789270909510089</v>
+        <v>0.4429763751315416</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>221.4690406428798</v>
+        <v>109.7011224187268</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[113.5387537334845, 329.39932755227517]</t>
+          <t>[-115.5421208065734, 334.9443656440269]</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.0003428917480183813</v>
+        <v>0.3226636169722337</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0003428917480183813</v>
+        <v>0.3226636169722337</v>
       </c>
       <c r="P38" t="n">
-        <v>-2.993789996213697</v>
+        <v>3.075553168379197</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[-3.5850006257180818, -2.402579366709312]</t>
+          <t>[-0.0503157982556921, 6.201422135014085]</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>7.773393040366727e-10</v>
+        <v>0.05346773675186567</v>
       </c>
       <c r="S38" t="n">
-        <v>7.773393040366727e-10</v>
+        <v>0.05346773675186567</v>
       </c>
       <c r="T38" t="n">
-        <v>656.1576911591404</v>
+        <v>634.6913383020956</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>[590.6966442843825, 721.6187380338984]</t>
+          <t>[510.0500006539638, 759.3326759502273]</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>7.03840541405043e-10</v>
       </c>
       <c r="W38" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>7.03840541405043e-10</v>
       </c>
       <c r="X38" t="n">
-        <v>11.41637637637652</v>
+        <v>12.09909909909924</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.161881881882001</v>
+        <v>0.3084084084084164</v>
       </c>
       <c r="Z38" t="n">
-        <v>13.67087087087104</v>
+        <v>23.88978978979006</v>
       </c>
     </row>
     <row r="39">
@@ -3751,81 +3751,81 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05070135394817921</v>
+        <v>0.4779967510766662</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05070135394817921</v>
+        <v>0.4779967510766662</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>160.2254599851566</v>
+        <v>100.8531126950511</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[-0.030555401288040684, 320.4814753716012]</t>
+          <t>[-114.45937969237536, 316.16560508247755]</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.05003986492007728</v>
+        <v>0.3410956412138613</v>
       </c>
       <c r="O39" t="n">
-        <v>0.05003986492007728</v>
+        <v>0.3410956412138613</v>
       </c>
       <c r="P39" t="n">
-        <v>2.874289975356427</v>
+        <v>-2.893158399702312</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[1.4277107755052714, 4.320869175207584]</t>
+          <t>[-6.031606315901124, 0.24528951649650033]</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>0.0004737821251881158</v>
+        <v>0.06893411769051005</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0004737821251881158</v>
+        <v>0.06893411769051005</v>
       </c>
       <c r="T39" t="n">
-        <v>730.0952336831592</v>
+        <v>630.0553149217415</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>[640.3622743474584, 819.82819301886]</t>
+          <t>[509.47398969261303, 750.6366401508699]</t>
         </is>
       </c>
       <c r="V39" t="n">
-        <v>1.032507412901396e-13</v>
+        <v>4.436613298963721e-10</v>
       </c>
       <c r="W39" t="n">
-        <v>1.032507412901396e-13</v>
+        <v>4.436613298963721e-10</v>
       </c>
       <c r="X39" t="n">
-        <v>12.99931931931949</v>
+        <v>10.91291291291303</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.483003003003099</v>
+        <v>-0.9252252252252369</v>
       </c>
       <c r="Z39" t="n">
-        <v>18.51563563563587</v>
+        <v>22.75105105105131</v>
       </c>
     </row>
     <row r="40">
@@ -3833,85 +3833,85 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.007544575192435898</v>
+        <v>0.4326734245290186</v>
       </c>
       <c r="I40" t="n">
-        <v>0.007544575192435898</v>
+        <v>0.4326734245290186</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>194.7641821347578</v>
+        <v>110.2588184741944</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[56.72364750621011, 332.8047167633056]</t>
+          <t>[-102.16170419486048, 322.6793411432492]</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.007925931976096701</v>
+        <v>0.292632917649428</v>
       </c>
       <c r="O40" t="n">
-        <v>0.007925931976096701</v>
+        <v>0.292632917649428</v>
       </c>
       <c r="P40" t="n">
-        <v>3.037816319687427</v>
+        <v>-1.698158191129618</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>[2.06923720326535, 4.006395436109505]</t>
+          <t>[-4.773711359508815, 1.3773949772495788]</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.840942058795036e-06</v>
+        <v>0.2637764430284899</v>
       </c>
       <c r="S40" t="n">
-        <v>1.840942058795036e-06</v>
+        <v>0.2637764430284899</v>
       </c>
       <c r="T40" t="n">
-        <v>681.8591889223057</v>
+        <v>568.6431446834063</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>[600.6338669095472, 763.0845109350643]</t>
+          <t>[446.5731278642278, 690.7131615025847]</t>
         </is>
       </c>
       <c r="V40" t="n">
-        <v>5.573319583618286e-14</v>
+        <v>3.367943701704235e-09</v>
       </c>
       <c r="W40" t="n">
-        <v>5.573319583618286e-14</v>
+        <v>3.367943701704235e-09</v>
       </c>
       <c r="X40" t="n">
-        <v>12.37573573573589</v>
+        <v>6.405405405405478</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.682202202202317</v>
+        <v>-5.195495495495553</v>
       </c>
       <c r="Z40" t="n">
-        <v>16.06926926926947</v>
+        <v>18.00630630630651</v>
       </c>
     </row>
     <row r="41">
@@ -3923,81 +3923,81 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.001633622606664886</v>
+        <v>0.02032850878253967</v>
       </c>
       <c r="I41" t="n">
-        <v>0.001633622606664886</v>
+        <v>0.02032850878253967</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>194.3234460233336</v>
+        <v>229.8014779714512</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[76.9998714010357, 311.6470206456315]</t>
+          <t>[44.198273109681395, 415.4046828332211]</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.00243031628971746</v>
+        <v>0.01766135821200776</v>
       </c>
       <c r="O41" t="n">
-        <v>0.00243031628971746</v>
+        <v>0.01766135821200776</v>
       </c>
       <c r="P41" t="n">
-        <v>-2.930895248394081</v>
+        <v>-1.522052897234694</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[-3.660474323101622, -2.2013161736865405]</t>
+          <t>[-2.64157940842385, -0.40252638604553814]</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.082596372079195e-08</v>
+        <v>0.01009080447477406</v>
       </c>
       <c r="S41" t="n">
-        <v>4.082596372079195e-08</v>
+        <v>0.01009080447477406</v>
       </c>
       <c r="T41" t="n">
-        <v>664.0869778633081</v>
+        <v>612.3465179453491</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>[596.1126904104572, 732.061265316159]</t>
+          <t>[503.041186525051, 721.6518493656472]</t>
         </is>
       </c>
       <c r="V41" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.253761539032894e-10</v>
       </c>
       <c r="W41" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.253761539032894e-10</v>
       </c>
       <c r="X41" t="n">
-        <v>11.17653653653668</v>
+        <v>5.741141141141203</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.394394394394496</v>
+        <v>1.518318318318331</v>
       </c>
       <c r="Z41" t="n">
-        <v>13.95867867867886</v>
+        <v>9.963963963964074</v>
       </c>
     </row>
     <row r="42">
@@ -4009,81 +4009,81 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01503585106158523</v>
+        <v>0.01038981239086934</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01503585106158523</v>
+        <v>0.01038981239086934</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>160.861337230694</v>
+        <v>247.5385865177209</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[33.46811536047204, 288.25455910091597]</t>
+          <t>[56.580304688490116, 438.49686834695177]</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.01579070835777352</v>
+        <v>0.01353541318294393</v>
       </c>
       <c r="O42" t="n">
-        <v>0.01579070835777352</v>
+        <v>0.01353541318294393</v>
       </c>
       <c r="P42" t="n">
-        <v>-3.00636894577762</v>
+        <v>-1.78621083807708</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[-4.063000709147159, -1.9497371824080805]</t>
+          <t>[-2.6918952066795434, -0.8805264694746171]</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>7.135438873540068e-06</v>
+        <v>0.000509800829007645</v>
       </c>
       <c r="S42" t="n">
-        <v>7.135438873540068e-06</v>
+        <v>0.000509800829007645</v>
       </c>
       <c r="T42" t="n">
-        <v>652.5324786093561</v>
+        <v>602.6906616594049</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>[578.963755035497, 726.1012021832152]</t>
+          <t>[495.71628178014373, 709.6650415386661]</t>
         </is>
       </c>
       <c r="V42" t="n">
-        <v>1.887379141862766e-14</v>
+        <v>1.13023590486705e-10</v>
       </c>
       <c r="W42" t="n">
-        <v>1.887379141862766e-14</v>
+        <v>1.13023590486705e-10</v>
       </c>
       <c r="X42" t="n">
-        <v>11.46434434434449</v>
+        <v>6.737537537537616</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.435035035035134</v>
+        <v>3.32132132132136</v>
       </c>
       <c r="Z42" t="n">
-        <v>15.49365365365385</v>
+        <v>10.15375375375387</v>
       </c>
     </row>
     <row r="43">
@@ -4095,81 +4095,81 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7555151717301292</v>
+        <v>0.2108203955937988</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7555151717301292</v>
+        <v>0.2108203955937988</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>44.25105640896703</v>
+        <v>123.2704297409842</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[-116.09768749474344, 204.5998003126775]</t>
+          <t>[-49.61722774023599, 296.15808722220436]</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.5721276479619402</v>
+        <v>0.1529848425823064</v>
       </c>
       <c r="O43" t="n">
-        <v>0.5721276479619402</v>
+        <v>0.1529848425823064</v>
       </c>
       <c r="P43" t="n">
-        <v>1.893131909370426</v>
+        <v>0.01886842434588498</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, 5.031579825569238]</t>
+          <t>[-2.4528951649650037, 2.4906320136567737]</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>0.2234666738256375</v>
+        <v>0.987484040977304</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2234666738256375</v>
+        <v>0.987484040977304</v>
       </c>
       <c r="T43" t="n">
-        <v>711.9168728060283</v>
+        <v>794.7238964500975</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>[625.6723915821823, 798.1613540298744]</t>
+          <t>[695.2172654527874, 894.2305274474077]</t>
         </is>
       </c>
       <c r="V43" t="n">
-        <v>7.771561172376096e-14</v>
+        <v>1.485478406948459e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>7.771561172376096e-14</v>
+        <v>1.485478406948459e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>16.74082082082104</v>
+        <v>23.62882882882909</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.772812812812875</v>
+        <v>14.30540540540556</v>
       </c>
       <c r="Z43" t="n">
-        <v>28.7088288288292</v>
+        <v>32.95225225225262</v>
       </c>
     </row>
     <row r="44">
@@ -4181,81 +4181,81 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09894941036011828</v>
+        <v>0.212958037289006</v>
       </c>
       <c r="I44" t="n">
-        <v>0.09894941036011828</v>
+        <v>0.212958037289006</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>158.927545133164</v>
+        <v>137.7609743498238</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[-34.579321043055074, 352.434411309383]</t>
+          <t>[-68.35317363742041, 343.8751223370681]</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.1023801188659368</v>
+        <v>0.1791017667728176</v>
       </c>
       <c r="O44" t="n">
-        <v>0.1023801188659368</v>
+        <v>0.1791017667728176</v>
       </c>
       <c r="P44" t="n">
-        <v>2.534658337130504</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[-0.19497371824080734, 5.264290392501815]</t>
+          <t>[-5.107053522952777, 1.0817896624973873]</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>0.06708493902197055</v>
+        <v>0.1905710554211519</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06708493902197055</v>
+        <v>0.1905710554211519</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7950596907738</v>
+        <v>568.484255908116</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>[636.1026901923716, 841.4874291891759]</t>
+          <t>[457.9682525640636, 679.0002592521683]</t>
         </is>
       </c>
       <c r="V44" t="n">
-        <v>1.130873172883184e-12</v>
+        <v>5.875349096129412e-10</v>
       </c>
       <c r="W44" t="n">
-        <v>1.130873172883184e-12</v>
+        <v>5.875349096129412e-10</v>
       </c>
       <c r="X44" t="n">
-        <v>14.29445445445464</v>
+        <v>7.591591591591673</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.885405405405457</v>
+        <v>-4.080480480480533</v>
       </c>
       <c r="Z44" t="n">
-        <v>24.70350350350382</v>
+        <v>19.26366366366388</v>
       </c>
     </row>
     <row r="45">
@@ -4263,85 +4263,85 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0007339743819699818</v>
+        <v>0.1847251042097435</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0007339743819699818</v>
+        <v>0.1847251042097435</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>260.4813315051035</v>
+        <v>189.6754303277764</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[117.1534492951622, 403.80921371504485]</t>
+          <t>[-55.586411187414, 434.9372718429669]</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.001099480849885648</v>
+        <v>0.1227038391756616</v>
       </c>
       <c r="O45" t="n">
-        <v>0.001099480849885648</v>
+        <v>0.1227038391756616</v>
       </c>
       <c r="P45" t="n">
-        <v>-2.96863209708585</v>
+        <v>-1.735895039821387</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[-3.635316423973775, -2.3019477701979256]</t>
+          <t>[-4.14476388131266, 0.6729738016698859]</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>7.313430305799784e-09</v>
+        <v>0.1488537567631849</v>
       </c>
       <c r="S45" t="n">
-        <v>7.313430305799784e-09</v>
+        <v>0.1488537567631849</v>
       </c>
       <c r="T45" t="n">
-        <v>720.4765513641682</v>
+        <v>712.9851485002674</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>[636.3842552695683, 804.5688474587682]</t>
+          <t>[568.2061074284214, 857.7641895721134]</t>
         </is>
       </c>
       <c r="V45" t="n">
-        <v>3.730349362740526e-14</v>
+        <v>1.273929406409025e-09</v>
       </c>
       <c r="W45" t="n">
-        <v>3.730349362740526e-14</v>
+        <v>1.273929406409025e-09</v>
       </c>
       <c r="X45" t="n">
-        <v>11.32044044044058</v>
+        <v>6.547747747747824</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.778138138138248</v>
+        <v>-2.538438438438465</v>
       </c>
       <c r="Z45" t="n">
-        <v>13.86274274274292</v>
+        <v>15.63393393393411</v>
       </c>
     </row>
     <row r="46">
@@ -4349,85 +4349,85 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-24</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01051546189719876</v>
+        <v>0.5808809007018194</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01051546189719876</v>
+        <v>0.5808809007018194</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>207.6190013080971</v>
+        <v>95.1987726644619</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[35.492378462274985, 379.7456241539192]</t>
+          <t>[-159.07813105040788, 349.4756763793317]</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.02040310203691864</v>
+        <v>0.4449081222332838</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02040310203691864</v>
+        <v>0.4449081222332838</v>
       </c>
       <c r="P46" t="n">
-        <v>-2.704474156243465</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[-3.6730532726655434, -1.7358950398213868]</t>
+          <t>[-5.088185098606892, 1.1635528346628865]</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>9.175449673159974e-06</v>
+        <v>0.2058411056848437</v>
       </c>
       <c r="S46" t="n">
-        <v>9.175449673159974e-06</v>
+        <v>0.2058411056848437</v>
       </c>
       <c r="T46" t="n">
-        <v>759.066362893363</v>
+        <v>646.7063221573803</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>[668.7511365310572, 849.3815892556688]</t>
+          <t>[514.6832349451691, 778.7294093695915]</t>
         </is>
       </c>
       <c r="V46" t="n">
-        <v>5.46229728115577e-14</v>
+        <v>1.399614868446974e-09</v>
       </c>
       <c r="W46" t="n">
-        <v>5.46229728115577e-14</v>
+        <v>1.399614868446974e-09</v>
       </c>
       <c r="X46" t="n">
-        <v>10.31311311311324</v>
+        <v>7.401801801801884</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.619579579579662</v>
+        <v>-4.388888888888937</v>
       </c>
       <c r="Z46" t="n">
-        <v>14.00664664664682</v>
+        <v>19.1924924924927</v>
       </c>
     </row>
     <row r="47">
@@ -4435,85 +4435,85 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>3.351036426457732e-06</v>
+        <v>0.09683616836322206</v>
       </c>
       <c r="I47" t="n">
-        <v>3.351036426457732e-06</v>
+        <v>0.09683616836322206</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>372.8452784660695</v>
+        <v>185.3457195497562</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[230.579826447679, 515.1107304844601]</t>
+          <t>[-48.12185117896496, 418.81329027847744]</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.087161807073912e-05</v>
+        <v>0.1136220430992503</v>
       </c>
       <c r="O47" t="n">
-        <v>2.087161807073912e-05</v>
+        <v>0.1136220430992503</v>
       </c>
       <c r="P47" t="n">
-        <v>-2.729632055371312</v>
+        <v>-0.9685791164220783</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[-3.157316340544697, -2.301947770197926]</t>
+          <t>[-3.773684869176928, 1.8365266363327715]</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.110223024625157e-11</v>
+        <v>0.4806254452179872</v>
       </c>
       <c r="S47" t="n">
-        <v>1.110223024625157e-11</v>
+        <v>0.4806254452179872</v>
       </c>
       <c r="T47" t="n">
-        <v>767.7925906347148</v>
+        <v>662.1016311804705</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>[689.2338746500129, 846.3513066194166]</t>
+          <t>[543.4712531724124, 780.7320091885285]</t>
         </is>
       </c>
       <c r="V47" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.342732591780305e-10</v>
       </c>
       <c r="W47" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.342732591780305e-10</v>
       </c>
       <c r="X47" t="n">
-        <v>10.40904904904918</v>
+        <v>3.653453453453494</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.778138138138248</v>
+        <v>-6.927327327327404</v>
       </c>
       <c r="Z47" t="n">
-        <v>12.03995995996011</v>
+        <v>14.23423423423439</v>
       </c>
     </row>
     <row r="48">
@@ -4521,85 +4521,85 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.009291883263958356</v>
+        <v>0.2271771808657553</v>
       </c>
       <c r="I48" t="n">
-        <v>0.009291883263958356</v>
+        <v>0.2271771808657553</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>229.2637069114941</v>
+        <v>152.4660126884802</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[48.79705298023373, 409.7303608427545]</t>
+          <t>[-76.23347569009195, 381.1655010670524]</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.01524572676332481</v>
+        <v>0.1801672723189454</v>
       </c>
       <c r="O48" t="n">
-        <v>0.01524572676332481</v>
+        <v>0.1801672723189454</v>
       </c>
       <c r="P48" t="n">
-        <v>-2.855421551010543</v>
+        <v>-1.295631805084079</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[-3.836579616996544, -1.8742634850245414]</t>
+          <t>[-4.295711276079737, 1.7044476659115793]</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.252317947013196e-06</v>
+        <v>0.3793069086295389</v>
       </c>
       <c r="S48" t="n">
-        <v>5.252317947013196e-06</v>
+        <v>0.3793069086295389</v>
       </c>
       <c r="T48" t="n">
-        <v>869.8232408585031</v>
+        <v>641.4520866431841</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>[771.5650942121056, 968.0813875049007]</t>
+          <t>[516.5218222457372, 766.382351040631]</t>
         </is>
       </c>
       <c r="V48" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>6.071243507932422e-10</v>
       </c>
       <c r="W48" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>6.071243507932422e-10</v>
       </c>
       <c r="X48" t="n">
-        <v>10.88872872872887</v>
+        <v>4.887087087087142</v>
       </c>
       <c r="Y48" t="n">
-        <v>7.147227227227321</v>
+        <v>-6.429129129129201</v>
       </c>
       <c r="Z48" t="n">
-        <v>14.63023023023042</v>
+        <v>16.20330330330349</v>
       </c>
     </row>
     <row r="49">
@@ -4607,85 +4607,85 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.007554916914108367</v>
+        <v>0.1441694086847685</v>
       </c>
       <c r="I49" t="n">
-        <v>0.007554916914108367</v>
+        <v>0.1441694086847685</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>299.6122338801199</v>
+        <v>202.6951292151702</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[58.26077075728119, 540.9636970029586]</t>
+          <t>[-69.8362142644466, 475.226472694787]</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.01740175201374528</v>
+        <v>0.1368709708647076</v>
       </c>
       <c r="O49" t="n">
-        <v>0.01740175201374528</v>
+        <v>0.1368709708647076</v>
       </c>
       <c r="P49" t="n">
-        <v>2.698184681461504</v>
+        <v>-0.767315923399309</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[1.8931319093704255, 3.5032374535525825]</t>
+          <t>[-3.8806059404702755, 2.3459740936716575]</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>6.966790959683777e-07</v>
+        <v>0.6136143800630136</v>
       </c>
       <c r="S49" t="n">
-        <v>6.966790959683777e-07</v>
+        <v>0.6136143800630136</v>
       </c>
       <c r="T49" t="n">
-        <v>789.2466096610733</v>
+        <v>672.0115868769935</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>[664.4246943518554, 914.0685249702913]</t>
+          <t>[527.7939333109912, 816.2292404429959]</t>
         </is>
       </c>
       <c r="V49" t="n">
-        <v>1.324007570246977e-11</v>
+        <v>3.350852484373945e-09</v>
       </c>
       <c r="W49" t="n">
-        <v>1.324007570246977e-11</v>
+        <v>3.350852484373945e-09</v>
       </c>
       <c r="X49" t="n">
-        <v>13.67087087087105</v>
+        <v>2.894294294294326</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.60092092092106</v>
+        <v>-8.848948948949049</v>
       </c>
       <c r="Z49" t="n">
-        <v>16.74082082082104</v>
+        <v>14.6375375375377</v>
       </c>
     </row>
     <row r="50">
@@ -4693,85 +4693,85 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>23.96000000000031</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04447716895031761</v>
+        <v>0.6698758660681963</v>
       </c>
       <c r="I50" t="n">
-        <v>0.04447716895031761</v>
+        <v>0.6698758660681963</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>168.6077524829428</v>
+        <v>79.63138367047668</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[9.07931207980539, 328.13619288608027]</t>
+          <t>[-159.3052769024639, 318.56804424341726]</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.03930372610568234</v>
+        <v>0.4958530324288617</v>
       </c>
       <c r="O50" t="n">
-        <v>0.03930372610568234</v>
+        <v>0.4958530324288617</v>
       </c>
       <c r="P50" t="n">
-        <v>2.949763672739966</v>
+        <v>-3.119579491852928</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[1.6038160694001942, 4.295711276079738]</t>
+          <t>[-6.226580034141932, -0.012578949563923025]</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>0.0001713455626231042</v>
+        <v>0.04916022474152815</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0001713455626231042</v>
+        <v>0.04916022474152815</v>
       </c>
       <c r="T50" t="n">
-        <v>637.0318871755547</v>
+        <v>738.2870556666821</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>[544.9799841866118, 729.0837901644977]</t>
+          <t>[607.9380158672707, 868.6360954660936]</t>
         </is>
       </c>
       <c r="V50" t="n">
-        <v>2.384092923080061e-12</v>
+        <v>1.025470819371321e-10</v>
       </c>
       <c r="W50" t="n">
-        <v>2.384092923080061e-12</v>
+        <v>1.025470819371321e-10</v>
       </c>
       <c r="X50" t="n">
-        <v>12.71151151151168</v>
+        <v>11.7669669669671</v>
       </c>
       <c r="Y50" t="n">
-        <v>7.578938938939035</v>
+        <v>0.04744744744744978</v>
       </c>
       <c r="Z50" t="n">
-        <v>17.84408408408432</v>
+        <v>23.48648648648675</v>
       </c>
     </row>
     <row r="51">
@@ -4779,85 +4779,85 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7358704779951786</v>
+        <v>0.009058880942469316</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7358704779951786</v>
+        <v>0.009058880942469316</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>55.5993585142391</v>
+        <v>228.6307694988146</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[-138.52043356623346, 249.71915059471166]</t>
+          <t>[68.74169536322506, 388.51984363440414]</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.5577823932814767</v>
+        <v>0.007243763627474253</v>
       </c>
       <c r="O51" t="n">
-        <v>0.5577823932814767</v>
+        <v>0.007243763627474253</v>
       </c>
       <c r="P51" t="n">
-        <v>-2.96863209708585</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>[-6.094501063720739, 0.15723686954903826]</t>
+          <t>[-2.5283688623485423, -0.5912106295043857]</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>0.06155971643866565</v>
+        <v>0.003040810658497373</v>
       </c>
       <c r="S51" t="n">
-        <v>0.06155971643866565</v>
+        <v>0.003040810658497373</v>
       </c>
       <c r="T51" t="n">
-        <v>637.3844894088918</v>
+        <v>651.5914466382504</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>[533.7373301305162, 741.0316486872674]</t>
+          <t>[551.1773961281081, 752.0054971483928]</t>
         </is>
       </c>
       <c r="V51" t="n">
-        <v>2.231392848273117e-11</v>
+        <v>8.116840533034519e-12</v>
       </c>
       <c r="W51" t="n">
-        <v>2.231392848273117e-11</v>
+        <v>8.116840533034519e-12</v>
       </c>
       <c r="X51" t="n">
-        <v>11.32044044044058</v>
+        <v>6.335295295295431</v>
       </c>
       <c r="Y51" t="n">
-        <v>-0.5995995995996051</v>
+        <v>2.401281281281332</v>
       </c>
       <c r="Z51" t="n">
-        <v>23.24048048048078</v>
+        <v>10.26930930930953</v>
       </c>
     </row>
     <row r="52">
@@ -4869,81 +4869,81 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03743500005060618</v>
+        <v>0.006688617034254829</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03743500005060618</v>
+        <v>0.006688617034254829</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>144.8320490885024</v>
+        <v>200.9038118981012</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[17.449626772356737, 272.21447140464807]</t>
+          <t>[47.60359836685154, 354.2040254293509]</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.02776419651804729</v>
+        <v>0.01267488581953624</v>
       </c>
       <c r="O52" t="n">
-        <v>0.02776419651804729</v>
+        <v>0.01267488581953624</v>
       </c>
       <c r="P52" t="n">
-        <v>-3.132158441416851</v>
+        <v>-1.924579283280234</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[-4.339737599553469, -1.9245792832802335]</t>
+          <t>[-2.8051057527548497, -1.0440528138056173]</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.378603570507565e-05</v>
+        <v>0.0001764126028129809</v>
       </c>
       <c r="S52" t="n">
-        <v>2.378603570507565e-05</v>
+        <v>0.0001764126028129809</v>
       </c>
       <c r="T52" t="n">
-        <v>680.5044733995487</v>
+        <v>630.7716366741719</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>[603.793245136199, 757.2157016628985]</t>
+          <t>[547.5183474356284, 714.0249259127154]</t>
         </is>
       </c>
       <c r="V52" t="n">
-        <v>1.887379141862766e-14</v>
+        <v>4.152234112098085e-13</v>
       </c>
       <c r="W52" t="n">
-        <v>1.887379141862766e-14</v>
+        <v>4.152234112098085e-13</v>
       </c>
       <c r="X52" t="n">
-        <v>11.94402402402418</v>
+        <v>7.816936936937108</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.339099099099194</v>
+        <v>4.240560560560656</v>
       </c>
       <c r="Z52" t="n">
-        <v>16.54894894894916</v>
+        <v>11.39331331331356</v>
       </c>
     </row>
     <row r="53">
@@ -4955,81 +4955,81 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.007358890991589262</v>
+        <v>0.007458528068394643</v>
       </c>
       <c r="I53" t="n">
-        <v>0.007358890991589262</v>
+        <v>0.007458528068394643</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>150.9315906440434</v>
+        <v>316.4512862782592</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[49.445189555786015, 252.4179917323007]</t>
+          <t>[64.75709820039356, 568.1454743561249]</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.005513414413982121</v>
+        <v>0.0161871357269745</v>
       </c>
       <c r="O53" t="n">
-        <v>0.005513414413982121</v>
+        <v>0.0161871357269745</v>
       </c>
       <c r="P53" t="n">
-        <v>-3.081842643161159</v>
+        <v>-2.289368820634003</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[-3.9875270117636217, -2.1761582745586954]</t>
+          <t>[-2.9686320970858504, -1.6101055441821566]</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.549877870603126e-07</v>
+        <v>6.407562838095515e-07</v>
       </c>
       <c r="S53" t="n">
-        <v>5.549877870603126e-07</v>
+        <v>6.407562838095515e-07</v>
       </c>
       <c r="T53" t="n">
-        <v>619.3146541778169</v>
+        <v>691.3186187563663</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>[556.5765926095373, 682.0527157460965]</t>
+          <t>[561.387690759359, 821.2495467533736]</t>
         </is>
       </c>
       <c r="V53" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>3.20150350674453e-10</v>
       </c>
       <c r="W53" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>3.20150350674453e-10</v>
       </c>
       <c r="X53" t="n">
-        <v>11.7521521521523</v>
+        <v>9.298578578578777</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.298458458458565</v>
+        <v>6.539659659659799</v>
       </c>
       <c r="Z53" t="n">
-        <v>15.20584584584604</v>
+        <v>12.05749749749775</v>
       </c>
     </row>
     <row r="54">
@@ -5037,85 +5037,85 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2526965290142784</v>
+        <v>4.309212706210541e-05</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2526965290142784</v>
+        <v>4.309212706210541e-05</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>114.0235178156587</v>
+        <v>410.3560276477946</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[-54.40029610268459, 282.4473317340021]</t>
+          <t>[219.71871700408303, 600.9933382915062]</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.1737907134848993</v>
+        <v>0.0002079823718577067</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1737907134848993</v>
+        <v>0.0002079823718577067</v>
       </c>
       <c r="P54" t="n">
-        <v>-3.107000542289005</v>
+        <v>-2.616421509296004</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>[-6.201422135014086, -0.012578949563923025]</t>
+          <t>[-3.08184264316116, -2.151000375430849]</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>0.04915683706825558</v>
+        <v>1.176623243281938e-10</v>
       </c>
       <c r="S54" t="n">
-        <v>0.04915683706825558</v>
+        <v>1.176623243281938e-10</v>
       </c>
       <c r="T54" t="n">
-        <v>657.2037767054537</v>
+        <v>661.7342539364438</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>[559.4378816381595, 754.9696717727479]</t>
+          <t>[560.7805560894105, 762.687951783477]</t>
         </is>
       </c>
       <c r="V54" t="n">
-        <v>4.15245615670301e-12</v>
+        <v>6.705302979526095e-12</v>
       </c>
       <c r="W54" t="n">
-        <v>4.15245615670301e-12</v>
+        <v>6.705302979526095e-12</v>
       </c>
       <c r="X54" t="n">
-        <v>11.84808808808824</v>
+        <v>10.62694694694718</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.04796796796796521</v>
+        <v>8.736576576576764</v>
       </c>
       <c r="Z54" t="n">
-        <v>23.64820820820851</v>
+        <v>12.51731731731759</v>
       </c>
     </row>
     <row r="55">
@@ -5123,85 +5123,85 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07389415331883586</v>
+        <v>0.0007926123448365185</v>
       </c>
       <c r="I55" t="n">
-        <v>0.07389415331883586</v>
+        <v>0.0007926123448365185</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>175.5238811226125</v>
+        <v>265.3562797364692</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[-18.849946346034073, 369.897708591259]</t>
+          <t>[120.17324180673478, 410.53931766620366]</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.07434779683320158</v>
+        <v>0.001044531014084527</v>
       </c>
       <c r="O55" t="n">
-        <v>0.07434779683320158</v>
+        <v>0.001044531014084527</v>
       </c>
       <c r="P55" t="n">
-        <v>-2.691895206679542</v>
+        <v>2.949763672739966</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>[-4.465527095192698, -0.9182633181663857]</t>
+          <t>[2.283079345852042, 3.6164479996278898]</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>0.004762121872790903</v>
+        <v>8.152031494290668e-09</v>
       </c>
       <c r="S55" t="n">
-        <v>0.004762121872790903</v>
+        <v>8.152031494290668e-09</v>
       </c>
       <c r="T55" t="n">
-        <v>730.374698698978</v>
+        <v>598.4445533693658</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>[624.2009969683617, 836.5484004295944]</t>
+          <t>[513.5228559247929, 683.3662508139388]</t>
         </is>
       </c>
       <c r="V55" t="n">
-        <v>2.673639087902302e-12</v>
+        <v>1.683542194541587e-12</v>
       </c>
       <c r="W55" t="n">
-        <v>2.673639087902302e-12</v>
+        <v>1.683542194541587e-12</v>
       </c>
       <c r="X55" t="n">
-        <v>10.26514514514528</v>
+        <v>13.53913913913943</v>
       </c>
       <c r="Y55" t="n">
-        <v>3.501661661661708</v>
+        <v>10.83131131131154</v>
       </c>
       <c r="Z55" t="n">
-        <v>17.02862862862884</v>
+        <v>16.24696696696732</v>
       </c>
     </row>
     <row r="56">
@@ -5213,81 +5213,81 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01218045593283756</v>
+        <v>2.885352420323173e-07</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01218045593283756</v>
+        <v>2.885352420323173e-07</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>163.7549880849785</v>
+        <v>326.3274344307174</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[23.642483066549346, 303.86749310340775]</t>
+          <t>[213.85211752933094, 438.80275133210387]</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.0241249653684521</v>
+        <v>5.477418147048496e-06</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0241249653684521</v>
+        <v>5.477418147048496e-06</v>
       </c>
       <c r="P56" t="n">
-        <v>-2.100684577175157</v>
+        <v>2.660447832769734</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>[-2.956053147521927, -1.2453160068283866]</t>
+          <t>[2.295658295415965, 3.025237370123503]</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.654367109990787e-05</v>
+        <v>8.690825836765725e-13</v>
       </c>
       <c r="S56" t="n">
-        <v>4.654367109990787e-05</v>
+        <v>8.690825836765725e-13</v>
       </c>
       <c r="T56" t="n">
-        <v>645.3061140369392</v>
+        <v>666.1266465593375</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>[572.5931399672447, 718.0190881066337]</t>
+          <t>[607.4094526133681, 724.8438405053068]</t>
         </is>
       </c>
       <c r="V56" t="n">
-        <v>1.865174681370263e-14</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>1.865174681370263e-14</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>8.010650650650753</v>
+        <v>14.71423423423455</v>
       </c>
       <c r="Y56" t="n">
-        <v>4.748828828828891</v>
+        <v>13.23259259259288</v>
       </c>
       <c r="Z56" t="n">
-        <v>11.27247247247261</v>
+        <v>16.19587587587622</v>
       </c>
     </row>
     <row r="57">
@@ -5295,85 +5295,85 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.06246038473238258</v>
+        <v>5.910029132749628e-10</v>
       </c>
       <c r="I57" t="n">
-        <v>0.06246038473238258</v>
+        <v>5.910029132749628e-10</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>224.8388367176346</v>
+        <v>468.0270125251647</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[-18.180313441665476, 467.8579868769348]</t>
+          <t>[358.54618878730344, 577.5078362630259]</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.06800887012548551</v>
+        <v>1.457287934769624e-08</v>
       </c>
       <c r="O57" t="n">
-        <v>0.06800887012548551</v>
+        <v>1.457287934769624e-08</v>
       </c>
       <c r="P57" t="n">
-        <v>2.345974093671658</v>
+        <v>2.094395102393195</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[-0.6226580034141929, 5.314606190757508]</t>
+          <t>[1.8428161111147325, 2.345974093671657]</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>0.1151848796966304</v>
+        <v>6.572520305780927e-14</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1151848796966304</v>
+        <v>6.572520305780927e-14</v>
       </c>
       <c r="T57" t="n">
-        <v>770.7891800101912</v>
+        <v>708.5260097310238</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>[639.7433713083178, 901.8349887120646]</t>
+          <t>[648.0739725610981, 768.9780469009495]</t>
         </is>
       </c>
       <c r="V57" t="n">
-        <v>5.111511214295206e-11</v>
+        <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>5.111511214295206e-11</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>15.01397397397417</v>
+        <v>17.0133333333337</v>
       </c>
       <c r="Y57" t="n">
-        <v>3.693533533533582</v>
+        <v>15.99151151151186</v>
       </c>
       <c r="Z57" t="n">
-        <v>26.33441441441475</v>
+        <v>18.03515515515555</v>
       </c>
     </row>
     <row r="58">
@@ -5381,85 +5381,85 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1454035611825768</v>
+        <v>1.409875086444412e-05</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1454035611825768</v>
+        <v>1.409875086444412e-05</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>116.2101468531272</v>
+        <v>319.7520652188987</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[-31.824390466303782, 264.2446841725581]</t>
+          <t>[183.26502351917486, 456.2391069186225]</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.1174714331512046</v>
+        <v>8.113998886005724e-05</v>
       </c>
       <c r="O58" t="n">
-        <v>0.1174714331512046</v>
+        <v>8.113998886005724e-05</v>
       </c>
       <c r="P58" t="n">
-        <v>-2.918316298830158</v>
+        <v>2.094395102393195</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[-5.597632555945777, -0.23900004171453837]</t>
+          <t>[1.6289739685280393, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>0.03420490842141799</v>
+        <v>6.108897165901794e-09</v>
       </c>
       <c r="S58" t="n">
-        <v>0.03420490842141799</v>
+        <v>6.108897165901794e-09</v>
       </c>
       <c r="T58" t="n">
-        <v>595.2627822957106</v>
+        <v>655.5936424807142</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>[512.2145415545508, 678.3110230368704]</t>
+          <t>[578.7571797276416, 732.4301052337867]</t>
         </is>
       </c>
       <c r="V58" t="n">
-        <v>1.214583988939921e-12</v>
+        <v>4.04121180963557e-14</v>
       </c>
       <c r="W58" t="n">
-        <v>1.214583988939921e-12</v>
+        <v>4.04121180963557e-14</v>
       </c>
       <c r="X58" t="n">
-        <v>11.12856856856871</v>
+        <v>17.0133333333337</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.9113913913914011</v>
+        <v>15.12296296296329</v>
       </c>
       <c r="Z58" t="n">
-        <v>21.34574574574602</v>
+        <v>18.90370370370412</v>
       </c>
     </row>
     <row r="59">
@@ -5467,85 +5467,85 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5591520232685561</v>
+        <v>8.503777081725339e-06</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5591520232685561</v>
+        <v>8.503777081725339e-06</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>82.30223500761582</v>
+        <v>305.6684362227534</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[-130.69194352033855, 295.2964135355702]</t>
+          <t>[185.11166457358098, 426.22520787192576]</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.4306447525677075</v>
+        <v>3.156308500495975e-05</v>
       </c>
       <c r="O59" t="n">
-        <v>0.4306447525677075</v>
+        <v>3.156308500495975e-05</v>
       </c>
       <c r="P59" t="n">
-        <v>2.798816277972889</v>
+        <v>1.767342413731194</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[-0.33963163822592346, 5.937264194171701]</t>
+          <t>[1.2893423303021168, 2.245342497160272]</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>0.07775510407362951</v>
+        <v>1.545510996958654e-07</v>
       </c>
       <c r="S59" t="n">
-        <v>0.07775510407362951</v>
+        <v>1.545510996958654e-07</v>
       </c>
       <c r="T59" t="n">
-        <v>647.2196109828672</v>
+        <v>619.880040302306</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>[536.4838811403653, 757.955340825369]</t>
+          <t>[548.956077795553, 690.804002809059]</t>
         </is>
       </c>
       <c r="V59" t="n">
-        <v>5.746891851288183e-11</v>
+        <v>2.509104035652854e-14</v>
       </c>
       <c r="W59" t="n">
-        <v>5.746891851288183e-11</v>
+        <v>2.509104035652854e-14</v>
       </c>
       <c r="X59" t="n">
-        <v>13.2871271271273</v>
+        <v>18.3417017017021</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.319119119119136</v>
+        <v>16.4002402402406</v>
       </c>
       <c r="Z59" t="n">
-        <v>25.25513513513546</v>
+        <v>20.2831631631636</v>
       </c>
     </row>
     <row r="60">
@@ -5557,3005 +5557,81 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>23.96000000000031</v>
+        <v>25.52000000000055</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.008996601464420495</v>
+        <v>0.00199335800236855</v>
       </c>
       <c r="I60" t="n">
-        <v>0.008996601464420495</v>
+        <v>0.00199335800236855</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>169.7118158237305</v>
+        <v>282.0807471375701</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[35.23813594907449, 304.1854956983866]</t>
+          <t>[116.22525006531515, 447.93624420982513]</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.01583913500995204</v>
+        <v>0.001954361735046373</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01583913500995204</v>
+        <v>0.001954361735046373</v>
       </c>
       <c r="P60" t="n">
-        <v>-2.088105627611234</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[-2.930895248394081, -1.2453160068283866]</t>
+          <t>[0.8239211964369639, 2.4340267406191183]</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.185149817659273e-05</v>
+        <v>0.0003951639216583924</v>
       </c>
       <c r="S60" t="n">
-        <v>4.185149817659273e-05</v>
+        <v>0.0003951639216583924</v>
       </c>
       <c r="T60" t="n">
-        <v>653.3211516384813</v>
+        <v>643.1796138396801</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>[580.9953762247687, 725.6469270521939]</t>
+          <t>[539.4245585161132, 746.934669163247]</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>1.920508196917581e-11</v>
       </c>
       <c r="W60" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>1.920508196917581e-11</v>
       </c>
       <c r="X60" t="n">
-        <v>7.962682682682786</v>
+        <v>18.90370370370411</v>
       </c>
       <c r="Y60" t="n">
-        <v>4.748828828828892</v>
+        <v>15.63387387387421</v>
       </c>
       <c r="Z60" t="n">
-        <v>11.17653653653668</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2022-08-06</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.1060090591144268</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.1060090591144268</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>126.8569268666995</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[-30.19065069930315, 283.9045044327021]</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>0.107807497665896</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.107807497665896</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-2.503210963220696</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[-5.547316757690085, 0.5408948312486936]</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>0.1019839327943279</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0.1019839327943279</v>
-      </c>
-      <c r="T61" t="n">
-        <v>609.2293212504178</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>[525.5022842903314, 692.9563582105042]</t>
-        </is>
-      </c>
-      <c r="V61" t="n">
-        <v>9.086065233532281e-13</v>
-      </c>
-      <c r="W61" t="n">
-        <v>9.086065233532281e-13</v>
-      </c>
-      <c r="X61" t="n">
-        <v>9.326506506506593</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>-2.015275275275295</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>20.66828828828848</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2022-08-07</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.2868584379040495</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.2868584379040495</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>98.93905878583672</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>[-53.70254305512586, 251.5806606267993]</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>0.1920327655867231</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.1920327655867231</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-3.132158441416851</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[-6.21400108457801, -0.0503157982556921]</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>0.04669053845453974</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.04669053845453974</v>
-      </c>
-      <c r="T62" t="n">
-        <v>646.864533074569</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>[556.4957468988155, 737.2333192503224]</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v>1.246336367444201e-12</v>
-      </c>
-      <c r="W62" t="n">
-        <v>1.246336367444201e-12</v>
-      </c>
-      <c r="X62" t="n">
-        <v>11.66984984984996</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0.187467467467469</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>23.15223223223245</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2022-08-08</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.01067600355273191</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.01067600355273191</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>172.3407274890654</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>[38.450481980956454, 306.23097299717426]</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>0.01411560565654124</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.01411560565654124</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-1.232737057264464</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[-2.226474072814387, -0.23900004171454015]</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>0.01747205863273216</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0.01747205863273216</v>
-      </c>
-      <c r="T63" t="n">
-        <v>626.3792966162201</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>[551.9961098304341, 700.7624834020062]</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v>5.240252676230739e-14</v>
-      </c>
-      <c r="W63" t="n">
-        <v>5.240252676230739e-14</v>
-      </c>
-      <c r="X63" t="n">
-        <v>4.592952952952995</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0.8904704704704818</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>8.295435435435508</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.2344259877871067</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.2344259877871067</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>172.3529831942988</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>[-76.54746438085778, 421.2534307694554]</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>0.1645974553828387</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.1645974553828387</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-3.031526844905466</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[-6.113369488066625, 0.05031579825569388]</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>0.05351879979780083</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0.05351879979780083</v>
-      </c>
-      <c r="T64" t="n">
-        <v>754.6906664334076</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>[609.2593073536814, 900.1220255131338]</t>
-        </is>
-      </c>
-      <c r="V64" t="n">
-        <v>5.019644699899573e-10</v>
-      </c>
-      <c r="W64" t="n">
-        <v>5.019644699899573e-10</v>
-      </c>
-      <c r="X64" t="n">
-        <v>11.29491491491502</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>-0.1874674674674743</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>22.77729729729751</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.1757018093733054</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.1757018093733054</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>135.1418419639499</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>[-59.04534457541729, 329.3290285033171]</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>0.1625832806789194</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.1625832806789194</v>
-      </c>
-      <c r="P65" t="n">
-        <v>2.698184681461504</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[-0.19497371824080822, 5.591343081163816]</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>0.06599639850776318</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0.06599639850776318</v>
-      </c>
-      <c r="T65" t="n">
-        <v>663.3466076598279</v>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>[560.6102778351732, 766.0829374844826]</t>
-        </is>
-      </c>
-      <c r="V65" t="n">
-        <v>8.919309735233583e-12</v>
-      </c>
-      <c r="W65" t="n">
-        <v>8.919309735233583e-12</v>
-      </c>
-      <c r="X65" t="n">
-        <v>13.35705705705718</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>2.5776776776777</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>24.13643643643667</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.5659682258233172</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.5659682258233172</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>75.90970022492485</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>[-124.25891968710562, 276.0783201369553]</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>0.4391299950879095</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.4391299950879095</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-2.691895206679543</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[-5.824053648096393, 0.44026323473730766]</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>0.08833253726564694</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0.08833253726564694</v>
-      </c>
-      <c r="T66" t="n">
-        <v>665.4586620158648</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>[561.3745560910502, 769.5427679406794]</t>
-        </is>
-      </c>
-      <c r="V66" t="n">
-        <v>1.074362820929764e-11</v>
-      </c>
-      <c r="W66" t="n">
-        <v>1.074362820929764e-11</v>
-      </c>
-      <c r="X66" t="n">
-        <v>10.0295095095096</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>-1.640340340340353</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>21.69935935935956</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2022-08-12</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.2040329519970754</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.2040329519970754</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>119.1756057478788</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>[-58.41660991124462, 296.7678214070023]</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>0.177432210113118</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.177432210113118</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-2.679316257115619</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[-5.7737378498407015, 0.4151053356094634]</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>0.08614051216857987</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0.08614051216857987</v>
-      </c>
-      <c r="T67" t="n">
-        <v>599.2054976007861</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>[503.9510689391509, 694.4599262624213]</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
-        <v>1.458366760687113e-11</v>
-      </c>
-      <c r="W67" t="n">
-        <v>1.458366760687113e-11</v>
-      </c>
-      <c r="X67" t="n">
-        <v>9.982642642642736</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>-1.546606606606625</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>21.5118918918921</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.3814386415074239</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.3814386415074239</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>101.8390948797319</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[-102.75191182525589, 306.43010158471964]</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>0.3123647916396477</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.3123647916396477</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-2.553526761476388</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[-5.691974677675201, 0.5849211547224247]</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>0.1054269256091258</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0.1054269256091258</v>
-      </c>
-      <c r="T68" t="n">
-        <v>650.2013412103013</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>[544.2981414523179, 756.1045409682847]</t>
-        </is>
-      </c>
-      <c r="V68" t="n">
-        <v>2.300248880260369e-11</v>
-      </c>
-      <c r="W68" t="n">
-        <v>2.300248880260369e-11</v>
-      </c>
-      <c r="X68" t="n">
-        <v>9.513973973974062</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>-2.179309309309334</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>21.20725725725746</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.01112541775573495</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.01112541775573495</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>176.7386501924603</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>[46.36041567751124, 307.1168847074094]</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>0.01027963026071488</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.01027963026071488</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-1.496894998106848</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>[-2.4654741145289263, -0.5283158816847697]</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>0.004166402107045553</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.004166402107045553</v>
-      </c>
-      <c r="T69" t="n">
-        <v>650.8875202894883</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>[574.3423015036343, 727.4327390753423]</t>
-        </is>
-      </c>
-      <c r="V69" t="n">
-        <v>4.329869796038111e-14</v>
-      </c>
-      <c r="W69" t="n">
-        <v>4.329869796038111e-14</v>
-      </c>
-      <c r="X69" t="n">
-        <v>5.57715715715721</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>1.968408408408427</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>9.185905905905992</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2022-08-15</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.01729148863918262</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.01729148863918262</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>169.0176592378708</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>[15.359515793060211, 322.67580268268136]</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>0.03264556939068419</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.03264556939068419</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-1.031473864241693</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>[-2.0377898293555408, -0.02515789912784605]</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>0.04501394273150461</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0.04501394273150461</v>
-      </c>
-      <c r="T70" t="n">
-        <v>588.430353315299</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>[510.0015231849418, 666.8591834456563]</t>
-        </is>
-      </c>
-      <c r="V70" t="n">
-        <v>5.020428517354958e-13</v>
-      </c>
-      <c r="W70" t="n">
-        <v>5.020428517354958e-13</v>
-      </c>
-      <c r="X70" t="n">
-        <v>3.843083083083119</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0.09373373373373584</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>7.592432432432503</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.1956844232577527</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.1956844232577527</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>127.0628402126331</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>[-59.45337887597776, 313.579059301244]</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>0.1712287521583704</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.1712287521583704</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-1.962316131972003</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>[-5.031579825569238, 1.1069475616252324]</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>0.1979169294649652</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0.1979169294649652</v>
-      </c>
-      <c r="T71" t="n">
-        <v>626.4115881926481</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>[527.7153001098126, 725.1078762754836]</t>
-        </is>
-      </c>
-      <c r="V71" t="n">
-        <v>1.233280144674609e-11</v>
-      </c>
-      <c r="W71" t="n">
-        <v>1.233280144674609e-11</v>
-      </c>
-      <c r="X71" t="n">
-        <v>7.3112312312313</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>-4.124284284284322</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>18.74674674674692</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.5155554774038682</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.5155554774038682</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>77.85249283490174</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[-111.78502006492772, 267.4900057347312]</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>0.4028772014385726</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.4028772014385726</v>
-      </c>
-      <c r="P72" t="n">
-        <v>-2.100684577175157</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>[-5.239132493373969, 1.0377633390236554]</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>0.1785007277532438</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.1785007277532438</v>
-      </c>
-      <c r="T72" t="n">
-        <v>614.1468199466083</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>[516.7325130303882, 711.5611268628284]</t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v>1.399058646711637e-11</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1.399058646711637e-11</v>
-      </c>
-      <c r="X72" t="n">
-        <v>7.826766766766839</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>-3.866516516516553</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>19.52005005005023</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2022-08-18</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.3137983273969182</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.3137983273969182</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>120.1924020282918</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>[-90.09623947971392, 330.4810435362975]</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>0.2478566121588619</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.2478566121588619</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0.4339737599553466</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>[-2.6918952066795425, 3.5598427265902357]</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>0.7756271495490081</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.7756271495490081</v>
-      </c>
-      <c r="T73" t="n">
-        <v>705.2979500440767</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>[591.4524408234897, 819.1434592646638]</t>
-        </is>
-      </c>
-      <c r="V73" t="n">
-        <v>1.942712657410084e-11</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1.942712657410084e-11</v>
-      </c>
-      <c r="X73" t="n">
-        <v>21.7930930930933</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>10.14667667667677</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>33.43950950950983</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.1622283655915954</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.1622283655915954</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>151.0680232452355</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>[-60.53486779764489, 362.6709142881159]</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>0.1524845960486123</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.1524845960486123</v>
-      </c>
-      <c r="P74" t="n">
-        <v>-2.679316257115619</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>[-5.780027324622662, 0.42139481039142357]</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>0.08673582683169223</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0.08673582683169223</v>
-      </c>
-      <c r="T74" t="n">
-        <v>668.3932116657938</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>[556.1473299728121, 780.6390933587755]</t>
-        </is>
-      </c>
-      <c r="V74" t="n">
-        <v>4.067302050714261e-11</v>
-      </c>
-      <c r="W74" t="n">
-        <v>4.067302050714261e-11</v>
-      </c>
-      <c r="X74" t="n">
-        <v>9.982642642642736</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>-1.570040040040055</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>21.53532532532553</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2022-08-20</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.09748025918013181</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.09748025918013181</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>136.508248025539</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[-28.837077306883828, 301.85357335796186]</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>0.1007087904430102</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.1007087904430102</v>
-      </c>
-      <c r="P75" t="n">
-        <v>-0.4654211338651546</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>[-2.5346583371305043, 1.603816069400195]</t>
-        </is>
-      </c>
-      <c r="R75" t="n">
-        <v>0.6447775743934745</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0.6447775743934745</v>
-      </c>
-      <c r="T75" t="n">
-        <v>624.2019370796319</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>[535.7162097707774, 712.6876643884864]</t>
-        </is>
-      </c>
-      <c r="V75" t="n">
-        <v>1.650679593012683e-12</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.650679593012683e-12</v>
-      </c>
-      <c r="X75" t="n">
-        <v>1.734074074074091</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>-5.975525525525583</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>9.443673673673764</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.005706780602052985</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.005706780602052985</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>177.7283360756318</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>[44.444406483507976, 311.01226566775557]</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>0.01139634687441382</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.01139634687441382</v>
-      </c>
-      <c r="P76" t="n">
-        <v>-0.5031579825569237</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>[-1.2704739059562327, 0.2641579408423853]</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>0.1871085727717883</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.1871085727717883</v>
-      </c>
-      <c r="T76" t="n">
-        <v>638.183570853603</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>[566.2650956204402, 710.1020460867658]</t>
-        </is>
-      </c>
-      <c r="V76" t="n">
-        <v>1.865174681370263e-14</v>
-      </c>
-      <c r="W76" t="n">
-        <v>1.865174681370263e-14</v>
-      </c>
-      <c r="X76" t="n">
-        <v>1.874674674674694</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>-0.9842042042042127</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>4.7335535535536</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2022-08-22</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.1862709255754257</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.1862709255754257</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>96.64980598153966</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>[-34.412283284671076, 227.7118952477504]</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>0.1400613830604189</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.1400613830604189</v>
-      </c>
-      <c r="P77" t="n">
-        <v>-0.1761052938949232</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>[-2.7862373284089657, 2.434026740619119]</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>0.889751148819389</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.889751148819389</v>
-      </c>
-      <c r="T77" t="n">
-        <v>651.8757711092176</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>[576.6299373607349, 727.1216048577003]</t>
-        </is>
-      </c>
-      <c r="V77" t="n">
-        <v>2.997602166487923e-14</v>
-      </c>
-      <c r="W77" t="n">
-        <v>2.997602166487923e-14</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0.6561361361361406</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>-9.068738738738826</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>10.38101101101111</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2022-08-23</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1.819914287604085e-05</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.819914287604085e-05</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>198.1293155555532</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[106.32356323305049, 289.935067878056]</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>0.0002022908267382828</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.0002022908267382828</v>
-      </c>
-      <c r="P78" t="n">
-        <v>-0.7421580242714629</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>[-1.1698423094448476, -0.3144737390980783]</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>0.001649063960159847</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.001649063960159847</v>
-      </c>
-      <c r="T78" t="n">
-        <v>707.9560737607321</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>[660.9778472468263, 754.934300274638]</t>
-        </is>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>2.765145145145173</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>1.171671671671686</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>4.358618618618659</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2022-08-24</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.004048244883774643</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.004048244883774643</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>107.5493229191995</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>[26.621483041613402, 188.47716279678568]</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0.01163733570665393</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.01163733570665393</v>
-      </c>
-      <c r="P79" t="n">
-        <v>-0.6666843268879239</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>[-1.3585265529036947, 0.02515789912784694]</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>0.05813927051967949</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.05813927051967949</v>
-      </c>
-      <c r="T79" t="n">
-        <v>647.6879470438355</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>[606.0751188084569, 689.3007752792141]</t>
-        </is>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>2.483943943943967</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>-0.09373373373373761</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>5.06162162162167</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>23.41000000000022</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.413587935046598</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.413587935046598</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>110.6417786100332</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>[-106.72420375744849, 328.0077609775149]</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0.3018307970611718</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.3018307970611718</v>
-      </c>
-      <c r="P80" t="n">
-        <v>1.427710775505271</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>[-1.6855792415656952, 4.541000792576237]</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>0.3510944024145957</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.3510944024145957</v>
-      </c>
-      <c r="T80" t="n">
-        <v>739.6352677090811</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>[621.15856569715, 858.1119697210121]</t>
-        </is>
-      </c>
-      <c r="V80" t="n">
-        <v>1.682609607200902e-11</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.682609607200902e-11</v>
-      </c>
-      <c r="X80" t="n">
-        <v>18.09061061061078</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>6.491061061061123</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>29.69016016016044</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.001124631181414371</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.001124631181414371</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>265.4305587867872</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>[92.91909631636332, 437.942021257211]</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0.004306042165638235</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.004306042165638235</v>
-      </c>
-      <c r="P81" t="n">
-        <v>-0.5031579825569237</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>[-1.1446844103170015, 0.13836844520315417]</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>0.1177831243117391</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.1177831243117391</v>
-      </c>
-      <c r="T81" t="n">
-        <v>720.6255602541432</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>[631.5748473136491, 809.6762731946374]</t>
-        </is>
-      </c>
-      <c r="V81" t="n">
-        <v>1.147970607462412e-13</v>
-      </c>
-      <c r="W81" t="n">
-        <v>1.147970607462412e-13</v>
-      </c>
-      <c r="X81" t="n">
-        <v>1.986786786786823</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>-0.5463663663663754</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>4.519939939940021</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.004769028746595017</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.004769028746595017</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>180.7626837634472</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>[61.29379612692463, 300.2315713999698]</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0.004870473448153945</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.004870473448153945</v>
-      </c>
-      <c r="P82" t="n">
-        <v>-1.660421342437848</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>[-2.5283688623485423, -0.7924738225271541]</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>0.0006841335684664163</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.0006841335684664163</v>
-      </c>
-      <c r="T82" t="n">
-        <v>693.6988971139556</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>[621.4588953483274, 765.9388988795838]</t>
-        </is>
-      </c>
-      <c r="V82" t="n">
-        <v>3.996802888650564e-15</v>
-      </c>
-      <c r="W82" t="n">
-        <v>3.996802888650564e-15</v>
-      </c>
-      <c r="X82" t="n">
-        <v>6.556396396396512</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>3.129189189189242</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>9.983603603603781</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.607506084312337</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.607506084312337</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>59.69591525545098</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>[-99.94158883166813, 219.3334193425701]</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0.4454400366546345</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.4454400366546345</v>
-      </c>
-      <c r="P83" t="n">
-        <v>-1.94973718240808</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>[-5.069316674261007, 1.1698423094448476]</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>0.2077708075056859</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.2077708075056859</v>
-      </c>
-      <c r="T83" t="n">
-        <v>672.4951256270442</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>[585.0686192151801, 759.9216320389083]</t>
-        </is>
-      </c>
-      <c r="V83" t="n">
-        <v>3.093081346605686e-13</v>
-      </c>
-      <c r="W83" t="n">
-        <v>3.093081346605686e-13</v>
-      </c>
-      <c r="X83" t="n">
-        <v>7.698798798798933</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>-4.619279279279361</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>20.01687687687723</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.0001877218773295164</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.0001877218773295164</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>260.3697349871134</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>[133.4001186938923, 387.3393512803344]</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0.0003451465162402911</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.0003451465162402911</v>
-      </c>
-      <c r="P84" t="n">
-        <v>2.937184723176043</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>[2.3459740936716575, 3.528395352680428]</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>1.090793899649611e-09</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1.090793899649611e-09</v>
-      </c>
-      <c r="T84" t="n">
-        <v>690.5292125086346</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>[617.0786385156888, 763.9797865015804]</t>
-        </is>
-      </c>
-      <c r="V84" t="n">
-        <v>5.773159728050814e-15</v>
-      </c>
-      <c r="W84" t="n">
-        <v>5.773159728050814e-15</v>
-      </c>
-      <c r="X84" t="n">
-        <v>13.21213213213237</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>10.87765765765785</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>15.54660660660688</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.0003256018301812658</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.0003256018301812658</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>250.0633426002283</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>[108.18857006458109, 391.9381151358755]</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0.001441623274023973</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.001441623274023973</v>
-      </c>
-      <c r="P85" t="n">
-        <v>2.132131951084965</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>[1.54092132158058, 2.7233425805893496]</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>2.281477962107203e-07</v>
-      </c>
-      <c r="S85" t="n">
-        <v>2.281477962107203e-07</v>
-      </c>
-      <c r="T85" t="n">
-        <v>679.5911267521055</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>[603.6526563719905, 755.5295971322206]</t>
-        </is>
-      </c>
-      <c r="V85" t="n">
-        <v>1.576516694967722e-14</v>
-      </c>
-      <c r="W85" t="n">
-        <v>1.576516694967722e-14</v>
-      </c>
-      <c r="X85" t="n">
-        <v>16.39099099099128</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>14.05651651651677</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>18.7254654654658</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>7.034726740018371e-07</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7.034726740018371e-07</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>373.4964534438283</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>[243.4069661452462, 503.58594074241046]</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>6.315894067965289e-06</v>
-      </c>
-      <c r="O86" t="n">
-        <v>6.315894067965289e-06</v>
-      </c>
-      <c r="P86" t="n">
-        <v>2.044079304137503</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>[1.6667108172198084, 2.421447791055197]</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>2.316153935311149e-10</v>
-      </c>
-      <c r="S86" t="n">
-        <v>2.316153935311149e-10</v>
-      </c>
-      <c r="T86" t="n">
-        <v>608.9713027068503</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>[536.9222590822749, 681.0203463314258]</t>
-        </is>
-      </c>
-      <c r="V86" t="n">
-        <v>4.884981308350689e-14</v>
-      </c>
-      <c r="W86" t="n">
-        <v>4.884981308350689e-14</v>
-      </c>
-      <c r="X86" t="n">
-        <v>16.73867867867898</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>15.24858858858885</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>18.2287687687691</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2022-09-01</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>5.697430758289102e-07</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5.697430758289102e-07</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>386.7428225847785</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>[248.34709036808522, 525.1385548014719]</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>9.077268193991017e-06</v>
-      </c>
-      <c r="O87" t="n">
-        <v>9.077268193991017e-06</v>
-      </c>
-      <c r="P87" t="n">
-        <v>1.993763505881811</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>[1.6289739685280402, 2.358553043235581]</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>1.967557228255146e-10</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1.967557228255146e-10</v>
-      </c>
-      <c r="T87" t="n">
-        <v>678.2867348381619</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>[604.6511790138178, 751.922290662506]</t>
-        </is>
-      </c>
-      <c r="V87" t="n">
-        <v>8.881784197001252e-15</v>
-      </c>
-      <c r="W87" t="n">
-        <v>8.881784197001252e-15</v>
-      </c>
-      <c r="X87" t="n">
-        <v>16.93735735735766</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>15.49693693693721</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>18.3777777777781</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>5.979226691543715e-08</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.979226691543715e-08</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>336.1987758373726</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>[248.52646980039646, 423.8710818743488]</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>8.66330667204096e-08</v>
-      </c>
-      <c r="O88" t="n">
-        <v>8.66330667204096e-08</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1.641552918091965</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>[1.3522370781217345, 1.9308687580621955]</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>9.92823601109194e-11</v>
-      </c>
-      <c r="S88" t="n">
-        <v>9.92823601109194e-11</v>
-      </c>
-      <c r="T88" t="n">
-        <v>640.5328615439275</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>[584.8192502323084, 696.2464728555467]</t>
-        </is>
-      </c>
-      <c r="V88" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="W88" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="X88" t="n">
-        <v>18.32810810810843</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>17.18570570570601</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>19.47051051051085</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.0004633268980809291</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.0004633268980809291</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>239.2878996312222</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>[98.53252474598497, 380.0432745164594]</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0.001961433993134198</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.001961433993134198</v>
-      </c>
-      <c r="P89" t="n">
-        <v>2.044079304137503</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>[1.42771077550527, 2.6604478327697354]</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>8.153634671881349e-07</v>
-      </c>
-      <c r="S89" t="n">
-        <v>8.153634671881349e-07</v>
-      </c>
-      <c r="T89" t="n">
-        <v>677.304145041856</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>[602.2216755226023, 752.3866145611098]</t>
-        </is>
-      </c>
-      <c r="V89" t="n">
-        <v>1.332267629550188e-14</v>
-      </c>
-      <c r="W89" t="n">
-        <v>1.332267629550188e-14</v>
-      </c>
-      <c r="X89" t="n">
-        <v>16.73867867867898</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>14.30486486486511</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>19.17249249249284</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.003107499461755481</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.003107499461755481</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>195.3203606017053</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>[68.3158488324662, 322.3248723709444]</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0.004321124714416369</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.004321124714416369</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1.352237078121732</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>[0.5346053564667317, 2.169868799776732]</t>
-        </is>
-      </c>
-      <c r="R90" t="n">
-        <v>0.002459707094620844</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.002459707094620844</v>
-      </c>
-      <c r="T90" t="n">
-        <v>654.7810550637231</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>[580.7782695780436, 728.7838405494026]</t>
-        </is>
-      </c>
-      <c r="V90" t="n">
-        <v>1.976196983832779e-14</v>
-      </c>
-      <c r="W90" t="n">
-        <v>1.976196983832779e-14</v>
-      </c>
-      <c r="X90" t="n">
-        <v>19.47051051051086</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>16.24198198198228</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>22.69903903903944</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2022-09-05</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.0009148323617521603</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.0009148323617521603</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>230.9071710612297</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>[88.74712654395552, 373.06721557850386]</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0.002841862804227713</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.002841862804227713</v>
-      </c>
-      <c r="P91" t="n">
-        <v>1.930868758062195</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>[1.2641844311742716, 2.5975530849501194]</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>5.61031495527331e-06</v>
-      </c>
-      <c r="S91" t="n">
-        <v>5.61031495527331e-06</v>
-      </c>
-      <c r="T91" t="n">
-        <v>721.6451155197622</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>[644.2933806802096, 798.9968503593147]</t>
-        </is>
-      </c>
-      <c r="V91" t="n">
-        <v>6.883382752675971e-15</v>
-      </c>
-      <c r="W91" t="n">
-        <v>6.883382752675971e-15</v>
-      </c>
-      <c r="X91" t="n">
-        <v>17.18570570570601</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>14.55321321321347</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>19.81819819819855</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.000817408899365768</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.000817408899365768</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>291.7624571758413</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>[108.46245370911674, 475.06246064256584]</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>0.00332983381384655</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.00332983381384655</v>
-      </c>
-      <c r="P92" t="n">
-        <v>2.119553001521041</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>[1.4780265737609621, 2.7610794292811196]</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>8.619385787334011e-07</v>
-      </c>
-      <c r="S92" t="n">
-        <v>8.619385787334011e-07</v>
-      </c>
-      <c r="T92" t="n">
-        <v>726.8502456757333</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>[630.4319851424548, 823.2685062090118]</t>
-        </is>
-      </c>
-      <c r="V92" t="n">
-        <v>4.578559753554146e-13</v>
-      </c>
-      <c r="W92" t="n">
-        <v>4.578559753554146e-13</v>
-      </c>
-      <c r="X92" t="n">
-        <v>16.44066066066095</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>13.90750750750775</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>18.97381381381415</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2022-09-07</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1.430226819421065e-06</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.430226819421065e-06</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>337.8373064980055</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>[228.71440779007696, 446.96020520593413]</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>2.216033654134364e-06</v>
-      </c>
-      <c r="O93" t="n">
-        <v>2.216033654134364e-06</v>
-      </c>
-      <c r="P93" t="n">
-        <v>1.50318447288881</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>[1.1258159859711165, 1.8805529598065034]</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>4.688255006435327e-08</v>
-      </c>
-      <c r="S93" t="n">
-        <v>4.688255006435327e-08</v>
-      </c>
-      <c r="T93" t="n">
-        <v>731.3977975359446</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>[663.2180394188995, 799.5775556529898]</t>
-        </is>
-      </c>
-      <c r="V93" t="n">
-        <v>4.440892098500626e-16</v>
-      </c>
-      <c r="W93" t="n">
-        <v>4.440892098500626e-16</v>
-      </c>
-      <c r="X93" t="n">
-        <v>18.87447447447481</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>17.38438438438469</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>20.36456456456493</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>24.81000000000044</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.04363612688643947</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.04363612688643947</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>149.4337651172705</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>[-18.973514664248853, 317.8410448987898]</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>0.07748391926064757</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.07748391926064757</v>
-      </c>
-      <c r="P94" t="n">
-        <v>3.113290017070967</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>[1.6918687163476567, 4.534711317794276]</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>0.000392085478515769</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.000392085478515769</v>
-      </c>
-      <c r="T94" t="n">
-        <v>538.8541705169455</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>[419.06734807669386, 658.6409929571971]</t>
-        </is>
-      </c>
-      <c r="V94" t="n">
-        <v>2.503996245906137e-07</v>
-      </c>
-      <c r="W94" t="n">
-        <v>2.503996245906137e-07</v>
-      </c>
-      <c r="X94" t="n">
-        <v>12.51675675675698</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>6.904084084084204</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>18.12942942942975</v>
+        <v>22.17353353353401</v>
       </c>
     </row>
   </sheetData>
